--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4894" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="1387">
   <si>
     <t>id</t>
   </si>
@@ -1196,27 +1196,27 @@
     <t>2023-07-24 12:37:57</t>
   </si>
   <si>
+    <t>2023-07-28 20:12:20</t>
+  </si>
+  <si>
+    <t>2023-07-17 16:03:47</t>
+  </si>
+  <si>
+    <t>2023-07-28 13:15:22</t>
+  </si>
+  <si>
     <t>2023-08-03 22:46:52</t>
   </si>
   <si>
-    <t>2023-07-28 20:12:20</t>
-  </si>
-  <si>
-    <t>2023-07-17 16:03:47</t>
-  </si>
-  <si>
-    <t>2023-07-28 13:15:22</t>
+    <t>2023-07-23 16:57:05</t>
+  </si>
+  <si>
+    <t>2023-08-16 00:51:31</t>
   </si>
   <si>
     <t>2023-07-23 17:06:46</t>
   </si>
   <si>
-    <t>2023-07-23 16:57:05</t>
-  </si>
-  <si>
-    <t>2023-08-16 00:51:31</t>
-  </si>
-  <si>
     <t>2023-07-21 11:48:44</t>
   </si>
   <si>
@@ -1289,18 +1289,18 @@
     <t>2023-07-19 10:35:12</t>
   </si>
   <si>
+    <t>2023-08-25 02:05:30</t>
+  </si>
+  <si>
     <t>2023-08-26 02:27:54</t>
   </si>
   <si>
-    <t>2023-08-25 02:05:30</t>
+    <t>2023-08-27 08:02:21</t>
   </si>
   <si>
     <t>2023-08-24 10:49:07</t>
   </si>
   <si>
-    <t>2023-08-27 08:02:21</t>
-  </si>
-  <si>
     <t>2023-08-23 23:52:54</t>
   </si>
   <si>
@@ -2528,6 +2528,18 @@
     <t>2023-08-27 17:50:39</t>
   </si>
   <si>
+    <t>2023-08-27 23:08:57</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:09:58</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:25:11</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:26:26</t>
+  </si>
+  <si>
     <t>list_exercises_ids</t>
   </si>
   <si>
@@ -4155,6 +4167,18 @@
   </si>
   <si>
     <t>2023-08-27 16:49:49</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:09:01</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:09:52</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:25:16</t>
+  </si>
+  <si>
+    <t>2023-08-27 23:26:14</t>
   </si>
 </sst>
 </file>
@@ -18540,16 +18564,16 @@
         <v>10.0</v>
       </c>
       <c r="B9" t="n">
-        <v>28.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9" t="s">
         <v>392</v>
       </c>
       <c r="E9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -18557,10 +18581,10 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="n">
-        <v>15.0</v>
+        <v>82.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="D10" t="s">
         <v>393</v>
@@ -18574,16 +18598,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>82.0</v>
+        <v>35.0</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="s">
         <v>394</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="12">
@@ -18591,16 +18615,16 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" t="s">
         <v>395</v>
       </c>
       <c r="E12" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="13">
@@ -18608,16 +18632,16 @@
         <v>10.0</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13" t="s">
         <v>396</v>
       </c>
       <c r="E13" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
@@ -18625,16 +18649,16 @@
         <v>10.0</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D14" t="s">
         <v>397</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -18642,16 +18666,16 @@
         <v>10.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="s">
         <v>398</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -19067,7 +19091,7 @@
         <v>17.0</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -19076,7 +19100,7 @@
         <v>423</v>
       </c>
       <c r="E40" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
@@ -19084,7 +19108,7 @@
         <v>17.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -19093,7 +19117,7 @@
         <v>424</v>
       </c>
       <c r="E41" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -19101,10 +19125,10 @@
         <v>17.0</v>
       </c>
       <c r="B42" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C42" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D42" t="s">
         <v>425</v>
@@ -19118,10 +19142,10 @@
         <v>17.0</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="s">
         <v>426</v>
@@ -19783,7 +19807,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N208"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20460,10 +20484,10 @@
         <v>504</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
         <v>489</v>
@@ -20768,10 +20792,10 @@
         <v>513</v>
       </c>
       <c r="D23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F23" t="s">
         <v>489</v>
@@ -21296,10 +21320,10 @@
         <v>530</v>
       </c>
       <c r="D35" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E35" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F35" t="s">
         <v>489</v>
@@ -21824,10 +21848,10 @@
         <v>550</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F47" t="s">
         <v>489</v>
@@ -22220,10 +22244,10 @@
         <v>566</v>
       </c>
       <c r="D56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F56" t="s">
         <v>489</v>
@@ -23232,10 +23256,10 @@
         <v>608</v>
       </c>
       <c r="D79" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F79" t="s">
         <v>489</v>
@@ -24332,10 +24356,10 @@
         <v>656</v>
       </c>
       <c r="D104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F104" t="s">
         <v>479</v>
@@ -27852,10 +27876,10 @@
         <v>798</v>
       </c>
       <c r="D184" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E184" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F184" t="s">
         <v>479</v>
@@ -27893,7 +27917,7 @@
         <v>11.0</v>
       </c>
       <c r="C185" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D185" t="s">
         <v>799</v>
@@ -28380,10 +28404,10 @@
         <v>819</v>
       </c>
       <c r="D196" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E196" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F196" t="s">
         <v>479</v>
@@ -28556,10 +28580,10 @@
         <v>824</v>
       </c>
       <c r="D200" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E200" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F200" t="s">
         <v>479</v>
@@ -28776,10 +28800,10 @@
         <v>832</v>
       </c>
       <c r="D205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E205" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F205" t="s">
         <v>479</v>
@@ -28939,6 +28963,94 @@
       </c>
       <c r="N208" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>836</v>
+      </c>
+      <c r="D209" t="s">
+        <v>837</v>
+      </c>
+      <c r="E209" t="s">
+        <v>837</v>
+      </c>
+      <c r="F209" t="s">
+        <v>489</v>
+      </c>
+      <c r="G209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>838</v>
+      </c>
+      <c r="D210" t="s">
+        <v>839</v>
+      </c>
+      <c r="E210" t="s">
+        <v>839</v>
+      </c>
+      <c r="F210" t="s">
+        <v>489</v>
+      </c>
+      <c r="G210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -28948,7 +29060,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B273"/>
+  <dimension ref="A1:B275"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28959,7 +29071,7 @@
         <v>465</v>
       </c>
       <c r="B1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2">
@@ -31136,6 +31248,22 @@
       </c>
       <c r="B273" t="n">
         <v>1422.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>654.0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1423.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>656.0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1425.0</v>
       </c>
     </row>
   </sheetData>
@@ -31145,7 +31273,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31153,7 +31281,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B1" t="s">
         <v>381</v>
@@ -31162,19 +31290,19 @@
         <v>374</v>
       </c>
       <c r="D1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="G1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="H1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2">
@@ -31240,7 +31368,7 @@
         <v>11.0</v>
       </c>
       <c r="D4" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="E4" t="s">
         <v>481</v>
@@ -31318,7 +31446,7 @@
         <v>11.0</v>
       </c>
       <c r="D7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="E7" t="s">
         <v>420</v>
@@ -31373,7 +31501,7 @@
         <v>486</v>
       </c>
       <c r="E9" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F9" t="n">
         <v>1364.0</v>
@@ -31396,7 +31524,7 @@
         <v>11.0</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E10" t="s">
         <v>408</v>
@@ -31474,7 +31602,7 @@
         <v>11.0</v>
       </c>
       <c r="D13" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -31500,7 +31628,7 @@
         <v>11.0</v>
       </c>
       <c r="D14" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E14" t="s">
         <v>491</v>
@@ -31526,7 +31654,7 @@
         <v>11.0</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -31607,7 +31735,7 @@
         <v>496</v>
       </c>
       <c r="E18" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="F18" t="n">
         <v>1472.0</v>
@@ -31630,7 +31758,7 @@
         <v>12.0</v>
       </c>
       <c r="D19" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E19" t="s">
         <v>497</v>
@@ -31734,7 +31862,7 @@
         <v>11.0</v>
       </c>
       <c r="D23" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E23" t="s">
         <v>503</v>
@@ -31786,7 +31914,7 @@
         <v>10.0</v>
       </c>
       <c r="D25" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -31838,7 +31966,7 @@
         <v>10.0</v>
       </c>
       <c r="D27" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -31890,7 +32018,7 @@
         <v>12.0</v>
       </c>
       <c r="D29" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -31916,7 +32044,7 @@
         <v>10.0</v>
       </c>
       <c r="D30" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -31942,7 +32070,7 @@
         <v>10.0</v>
       </c>
       <c r="D31" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -31968,7 +32096,7 @@
         <v>10.0</v>
       </c>
       <c r="D32" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -31994,7 +32122,7 @@
         <v>10.0</v>
       </c>
       <c r="D33" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -32020,7 +32148,7 @@
         <v>10.0</v>
       </c>
       <c r="D34" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -32046,7 +32174,7 @@
         <v>10.0</v>
       </c>
       <c r="D35" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -32072,7 +32200,7 @@
         <v>10.0</v>
       </c>
       <c r="D36" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -32098,10 +32226,10 @@
         <v>10.0</v>
       </c>
       <c r="D37" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="E37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F37" t="n">
         <v>1490.0</v>
@@ -32150,7 +32278,7 @@
         <v>10.0</v>
       </c>
       <c r="D39" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -32176,7 +32304,7 @@
         <v>12.0</v>
       </c>
       <c r="D40" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E40" t="s">
         <v>507</v>
@@ -32228,7 +32356,7 @@
         <v>10.0</v>
       </c>
       <c r="D42" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E42" t="s">
         <v>388</v>
@@ -32332,7 +32460,7 @@
         <v>10.0</v>
       </c>
       <c r="D46" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -32358,7 +32486,7 @@
         <v>10.0</v>
       </c>
       <c r="D47" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -32384,7 +32512,7 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
@@ -32410,7 +32538,7 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -32436,7 +32564,7 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
@@ -32488,7 +32616,7 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="E52" t="s">
         <v>515</v>
@@ -32514,7 +32642,7 @@
         <v>10.0</v>
       </c>
       <c r="D53" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -32566,7 +32694,7 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
@@ -32592,7 +32720,7 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="E56" t="s">
         <v>406</v>
@@ -32670,7 +32798,7 @@
         <v>14.0</v>
       </c>
       <c r="D59" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="E59" t="s">
         <v>421</v>
@@ -32696,7 +32824,7 @@
         <v>10.0</v>
       </c>
       <c r="D60" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
@@ -32722,7 +32850,7 @@
         <v>10.0</v>
       </c>
       <c r="D61" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -32826,7 +32954,7 @@
         <v>11.0</v>
       </c>
       <c r="D65" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E65" t="s">
         <v>523</v>
@@ -32904,7 +33032,7 @@
         <v>11.0</v>
       </c>
       <c r="D68" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="E68" t="s">
         <v>526</v>
@@ -32930,7 +33058,7 @@
         <v>10.0</v>
       </c>
       <c r="D69" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -32956,7 +33084,7 @@
         <v>10.0</v>
       </c>
       <c r="D70" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -33008,7 +33136,7 @@
         <v>10.0</v>
       </c>
       <c r="D72" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
@@ -33034,7 +33162,7 @@
         <v>10.0</v>
       </c>
       <c r="D73" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -33060,7 +33188,7 @@
         <v>10.0</v>
       </c>
       <c r="D74" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -33086,10 +33214,10 @@
         <v>10.0</v>
       </c>
       <c r="D75" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F75" t="n">
         <v>1537.0</v>
@@ -33141,7 +33269,7 @@
         <v>530</v>
       </c>
       <c r="E77" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F77" t="n">
         <v>1541.0</v>
@@ -33372,7 +33500,7 @@
         <v>10.0</v>
       </c>
       <c r="D86" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="E86" t="s">
         <v>543</v>
@@ -33453,7 +33581,7 @@
         <v>548</v>
       </c>
       <c r="E89" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F89" t="n">
         <v>1564.0</v>
@@ -33476,7 +33604,7 @@
         <v>10.0</v>
       </c>
       <c r="D90" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="E90" t="s">
         <v>549</v>
@@ -33580,7 +33708,7 @@
         <v>11.0</v>
       </c>
       <c r="D94" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="E94" t="s">
         <v>554</v>
@@ -33606,10 +33734,10 @@
         <v>10.0</v>
       </c>
       <c r="D95" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F95" t="n">
         <v>1574.0</v>
@@ -33687,7 +33815,7 @@
         <v>559</v>
       </c>
       <c r="E98" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F98" t="n">
         <v>1584.0</v>
@@ -33710,7 +33838,7 @@
         <v>10.0</v>
       </c>
       <c r="D99" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E99" t="s">
         <v>390</v>
@@ -33817,7 +33945,7 @@
         <v>566</v>
       </c>
       <c r="E103" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F103" t="n">
         <v>1595.0</v>
@@ -34204,10 +34332,10 @@
         <v>10.0</v>
       </c>
       <c r="D118" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="E118" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="F118" t="n">
         <v>1626.0</v>
@@ -34230,7 +34358,7 @@
         <v>10.0</v>
       </c>
       <c r="D119" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="E119" t="s">
         <v>25</v>
@@ -34256,7 +34384,7 @@
         <v>10.0</v>
       </c>
       <c r="D120" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="E120" t="s">
         <v>592</v>
@@ -34363,7 +34491,7 @@
         <v>598</v>
       </c>
       <c r="E124" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="F124" t="n">
         <v>1637.0</v>
@@ -34386,7 +34514,7 @@
         <v>11.0</v>
       </c>
       <c r="D125" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E125" t="s">
         <v>599</v>
@@ -34519,7 +34647,7 @@
         <v>608</v>
       </c>
       <c r="E130" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F130" t="n">
         <v>1650.0</v>
@@ -34857,7 +34985,7 @@
         <v>632</v>
       </c>
       <c r="E143" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="F143" t="n">
         <v>1693.0</v>
@@ -34880,7 +35008,7 @@
         <v>11.0</v>
       </c>
       <c r="D144" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
@@ -34906,7 +35034,7 @@
         <v>11.0</v>
       </c>
       <c r="D145" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E145" t="s">
         <v>633</v>
@@ -35039,7 +35167,7 @@
         <v>642</v>
       </c>
       <c r="E150" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="F150" t="n">
         <v>1721.0</v>
@@ -35062,7 +35190,7 @@
         <v>10.0</v>
       </c>
       <c r="D151" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E151" t="s">
         <v>643</v>
@@ -35143,7 +35271,7 @@
         <v>648</v>
       </c>
       <c r="E154" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F154" t="n">
         <v>1740.0</v>
@@ -35166,7 +35294,7 @@
         <v>10.0</v>
       </c>
       <c r="D155" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="E155" t="s">
         <v>25</v>
@@ -35192,7 +35320,7 @@
         <v>10.0</v>
       </c>
       <c r="D156" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="E156" t="s">
         <v>25</v>
@@ -35218,7 +35346,7 @@
         <v>10.0</v>
       </c>
       <c r="D157" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E157" t="s">
         <v>649</v>
@@ -35325,7 +35453,7 @@
         <v>656</v>
       </c>
       <c r="E161" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F161" t="n">
         <v>1753.0</v>
@@ -35348,10 +35476,10 @@
         <v>10.0</v>
       </c>
       <c r="D162" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="E162" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F162" t="n">
         <v>1755.0</v>
@@ -35559,7 +35687,7 @@
         <v>670</v>
       </c>
       <c r="E170" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="F170" t="n">
         <v>1773.0</v>
@@ -35582,7 +35710,7 @@
         <v>11.0</v>
       </c>
       <c r="D171" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E171" t="s">
         <v>671</v>
@@ -35715,7 +35843,7 @@
         <v>680</v>
       </c>
       <c r="E176" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F176" t="n">
         <v>1785.0</v>
@@ -35738,7 +35866,7 @@
         <v>10.0</v>
       </c>
       <c r="D177" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E177" t="s">
         <v>25</v>
@@ -35764,7 +35892,7 @@
         <v>10.0</v>
       </c>
       <c r="D178" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="E178" t="s">
         <v>681</v>
@@ -36544,7 +36672,7 @@
         <v>304.0</v>
       </c>
       <c r="D208" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="E208" t="s">
         <v>737</v>
@@ -37223,7 +37351,7 @@
         <v>780</v>
       </c>
       <c r="E234" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="F234" t="n">
         <v>1913.0</v>
@@ -37246,7 +37374,7 @@
         <v>10.0</v>
       </c>
       <c r="D235" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="E235" t="s">
         <v>781</v>
@@ -37506,7 +37634,7 @@
         <v>177.0</v>
       </c>
       <c r="D245" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E245" t="s">
         <v>795</v>
@@ -37587,7 +37715,7 @@
         <v>798</v>
       </c>
       <c r="E248" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F248" t="n">
         <v>1945.0</v>
@@ -37610,7 +37738,7 @@
         <v>11.0</v>
       </c>
       <c r="D249" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E249" t="s">
         <v>799</v>
@@ -37795,7 +37923,7 @@
         <v>812</v>
       </c>
       <c r="E256" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F256" t="n">
         <v>1962.0</v>
@@ -37818,7 +37946,7 @@
         <v>11.0</v>
       </c>
       <c r="D257" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="E257" t="s">
         <v>813</v>
@@ -37925,7 +38053,7 @@
         <v>819</v>
       </c>
       <c r="E261" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F261" t="n">
         <v>1972.0</v>
@@ -38029,7 +38157,7 @@
         <v>824</v>
       </c>
       <c r="E265" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F265" t="n">
         <v>1984.0</v>
@@ -38159,7 +38287,7 @@
         <v>832</v>
       </c>
       <c r="E270" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F270" t="n">
         <v>1994.0</v>
@@ -38246,6 +38374,58 @@
         <v>0.0</v>
       </c>
       <c r="H273" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1423.0</v>
+      </c>
+      <c r="B274" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>836</v>
+      </c>
+      <c r="E274" t="s">
+        <v>837</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1425.0</v>
+      </c>
+      <c r="B275" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>838</v>
+      </c>
+      <c r="E275" t="s">
+        <v>839</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="H275" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -38256,7 +38436,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I468"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38264,28 +38444,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B1" t="s">
         <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="E1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="F1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="G1" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="H1" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="I1" t="s">
         <v>381</v>
@@ -38302,7 +38482,7 @@
         <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E2" t="n">
         <v>9.0</v>
@@ -38328,7 +38508,7 @@
         <v>11.0</v>
       </c>
       <c r="C3" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D3" t="s">
         <v>417</v>
@@ -38360,7 +38540,7 @@
         <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E4" t="n">
         <v>6.0</v>
@@ -38386,7 +38566,7 @@
         <v>11.0</v>
       </c>
       <c r="C5" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D5" t="s">
         <v>412</v>
@@ -38415,10 +38595,10 @@
         <v>11.0</v>
       </c>
       <c r="C6" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="D6" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="E6" t="n">
         <v>5.0</v>
@@ -38444,7 +38624,7 @@
         <v>11.0</v>
       </c>
       <c r="C7" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D7" t="s">
         <v>481</v>
@@ -38476,7 +38656,7 @@
         <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
@@ -38502,7 +38682,7 @@
         <v>11.0</v>
       </c>
       <c r="C9" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D9" t="s">
         <v>483</v>
@@ -38534,7 +38714,7 @@
         <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="E10" t="n">
         <v>8.0</v>
@@ -38560,7 +38740,7 @@
         <v>11.0</v>
       </c>
       <c r="C11" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D11" t="s">
         <v>415</v>
@@ -38589,10 +38769,10 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D12" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="E12" t="n">
         <v>6.0</v>
@@ -38618,7 +38798,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D13" t="s">
         <v>420</v>
@@ -38650,7 +38830,7 @@
         <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="E14" t="n">
         <v>5.0</v>
@@ -38676,7 +38856,7 @@
         <v>11.0</v>
       </c>
       <c r="C15" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D15" t="s">
         <v>419</v>
@@ -38708,7 +38888,7 @@
         <v>486</v>
       </c>
       <c r="D16" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="E16" t="n">
         <v>6.0</v>
@@ -38734,10 +38914,10 @@
         <v>11.0</v>
       </c>
       <c r="C17" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D17" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E17" t="n">
         <v>3.0</v>
@@ -38763,10 +38943,10 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D18" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="E18" t="n">
         <v>3.0</v>
@@ -38792,7 +38972,7 @@
         <v>11.0</v>
       </c>
       <c r="C19" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D19" t="s">
         <v>408</v>
@@ -38824,7 +39004,7 @@
         <v>487</v>
       </c>
       <c r="D20" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E20" t="n">
         <v>7.0</v>
@@ -38850,7 +39030,7 @@
         <v>11.0</v>
       </c>
       <c r="C21" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D21" t="s">
         <v>488</v>
@@ -38882,7 +39062,7 @@
         <v>490</v>
       </c>
       <c r="D22" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E22" t="n">
         <v>5.0</v>
@@ -38908,10 +39088,10 @@
         <v>11.0</v>
       </c>
       <c r="C23" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="D23" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="E23" t="n">
         <v>6.0</v>
@@ -38937,10 +39117,10 @@
         <v>11.0</v>
       </c>
       <c r="C24" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D24" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="E24" t="n">
         <v>5.0</v>
@@ -38966,10 +39146,10 @@
         <v>11.0</v>
       </c>
       <c r="C25" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D25" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="E25" t="n">
         <v>8.0</v>
@@ -38995,7 +39175,7 @@
         <v>11.0</v>
       </c>
       <c r="C26" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D26" t="s">
         <v>491</v>
@@ -39027,7 +39207,7 @@
         <v>492</v>
       </c>
       <c r="D27" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E27" t="n">
         <v>6.0</v>
@@ -39053,7 +39233,7 @@
         <v>11.0</v>
       </c>
       <c r="C28" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="D28" t="s">
         <v>493</v>
@@ -39085,7 +39265,7 @@
         <v>494</v>
       </c>
       <c r="D29" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="E29" t="n">
         <v>8.0</v>
@@ -39111,7 +39291,7 @@
         <v>12.0</v>
       </c>
       <c r="C30" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="D30" t="s">
         <v>495</v>
@@ -39143,7 +39323,7 @@
         <v>496</v>
       </c>
       <c r="D31" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="E31" t="n">
         <v>4.0</v>
@@ -39169,10 +39349,10 @@
         <v>12.0</v>
       </c>
       <c r="C32" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D32" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E32" t="n">
         <v>4.0</v>
@@ -39198,10 +39378,10 @@
         <v>12.0</v>
       </c>
       <c r="C33" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D33" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="E33" t="n">
         <v>4.0</v>
@@ -39227,7 +39407,7 @@
         <v>12.0</v>
       </c>
       <c r="C34" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="D34" t="s">
         <v>497</v>
@@ -39259,7 +39439,7 @@
         <v>498</v>
       </c>
       <c r="D35" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="E35" t="n">
         <v>4.0</v>
@@ -39285,7 +39465,7 @@
         <v>12.0</v>
       </c>
       <c r="C36" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D36" t="s">
         <v>499</v>
@@ -39317,7 +39497,7 @@
         <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="E37" t="n">
         <v>4.0</v>
@@ -39343,7 +39523,7 @@
         <v>12.0</v>
       </c>
       <c r="C38" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="D38" t="s">
         <v>501</v>
@@ -39375,7 +39555,7 @@
         <v>502</v>
       </c>
       <c r="D39" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="E39" t="n">
         <v>6.0</v>
@@ -39401,10 +39581,10 @@
         <v>11.0</v>
       </c>
       <c r="C40" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D40" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="E40" t="n">
         <v>6.0</v>
@@ -39430,7 +39610,7 @@
         <v>11.0</v>
       </c>
       <c r="C41" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D41" t="s">
         <v>503</v>
@@ -39459,10 +39639,10 @@
         <v>10.0</v>
       </c>
       <c r="C42" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D42" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -39491,7 +39671,7 @@
         <v>505</v>
       </c>
       <c r="D43" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="E43" t="n">
         <v>8.0</v>
@@ -39517,7 +39697,7 @@
         <v>11.0</v>
       </c>
       <c r="C44" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="D44" t="s">
         <v>404</v>
@@ -39546,10 +39726,10 @@
         <v>10.0</v>
       </c>
       <c r="C45" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="D45" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -39575,10 +39755,10 @@
         <v>10.0</v>
       </c>
       <c r="C46" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="D46" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E46" t="n">
         <v>0.0</v>
@@ -39604,10 +39784,10 @@
         <v>10.0</v>
       </c>
       <c r="C47" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D47" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E47" t="n">
         <v>6.0</v>
@@ -39633,10 +39813,10 @@
         <v>10.0</v>
       </c>
       <c r="C48" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D48" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="E48" t="n">
         <v>7.0</v>
@@ -39662,10 +39842,10 @@
         <v>10.0</v>
       </c>
       <c r="C49" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="D49" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E49" t="n">
         <v>8.0</v>
@@ -39691,10 +39871,10 @@
         <v>10.0</v>
       </c>
       <c r="C50" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="D50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E50" t="n">
         <v>4.0</v>
@@ -39723,7 +39903,7 @@
         <v>508</v>
       </c>
       <c r="D51" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E51" t="n">
         <v>6.0</v>
@@ -39749,10 +39929,10 @@
         <v>10.0</v>
       </c>
       <c r="C52" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D52" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="E52" t="n">
         <v>7.0</v>
@@ -39778,10 +39958,10 @@
         <v>12.0</v>
       </c>
       <c r="C53" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D53" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="E53" t="n">
         <v>5.0</v>
@@ -39807,7 +39987,7 @@
         <v>12.0</v>
       </c>
       <c r="C54" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="D54" t="s">
         <v>507</v>
@@ -39839,7 +40019,7 @@
         <v>509</v>
       </c>
       <c r="D55" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="E55" t="n">
         <v>3.0</v>
@@ -39865,7 +40045,7 @@
         <v>12.0</v>
       </c>
       <c r="C56" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="D56" t="s">
         <v>510</v>
@@ -39894,10 +40074,10 @@
         <v>10.0</v>
       </c>
       <c r="C57" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="D57" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="E57" t="n">
         <v>8.0</v>
@@ -39923,7 +40103,7 @@
         <v>10.0</v>
       </c>
       <c r="C58" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D58" t="s">
         <v>388</v>
@@ -39955,7 +40135,7 @@
         <v>511</v>
       </c>
       <c r="D59" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E59" t="n">
         <v>7.0</v>
@@ -39981,7 +40161,7 @@
         <v>11.0</v>
       </c>
       <c r="C60" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="D60" t="s">
         <v>401</v>
@@ -40013,7 +40193,7 @@
         <v>512</v>
       </c>
       <c r="D61" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="E61" t="n">
         <v>8.0</v>
@@ -40039,10 +40219,10 @@
         <v>10.0</v>
       </c>
       <c r="C62" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D62" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -40068,10 +40248,10 @@
         <v>10.0</v>
       </c>
       <c r="C63" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D63" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="E63" t="n">
         <v>3.0</v>
@@ -40100,7 +40280,7 @@
         <v>514</v>
       </c>
       <c r="D64" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E64" t="n">
         <v>3.0</v>
@@ -40126,10 +40306,10 @@
         <v>11.0</v>
       </c>
       <c r="C65" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D65" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="E65" t="n">
         <v>7.0</v>
@@ -40155,7 +40335,7 @@
         <v>11.0</v>
       </c>
       <c r="C66" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="D66" t="s">
         <v>515</v>
@@ -40184,10 +40364,10 @@
         <v>10.0</v>
       </c>
       <c r="C67" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D67" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="E67" t="n">
         <v>5.0</v>
@@ -40216,7 +40396,7 @@
         <v>516</v>
       </c>
       <c r="D68" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="E68" t="n">
         <v>5.0</v>
@@ -40242,10 +40422,10 @@
         <v>11.0</v>
       </c>
       <c r="C69" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="D69" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E69" t="n">
         <v>5.0</v>
@@ -40271,7 +40451,7 @@
         <v>11.0</v>
       </c>
       <c r="C70" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="D70" t="s">
         <v>406</v>
@@ -40303,7 +40483,7 @@
         <v>517</v>
       </c>
       <c r="D71" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="E71" t="n">
         <v>6.0</v>
@@ -40329,7 +40509,7 @@
         <v>11.0</v>
       </c>
       <c r="C72" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="D72" t="s">
         <v>414</v>
@@ -40361,7 +40541,7 @@
         <v>518</v>
       </c>
       <c r="D73" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
@@ -40387,10 +40567,10 @@
         <v>14.0</v>
       </c>
       <c r="C74" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D74" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E74" t="n">
         <v>3.0</v>
@@ -40416,7 +40596,7 @@
         <v>14.0</v>
       </c>
       <c r="C75" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="D75" t="s">
         <v>421</v>
@@ -40445,10 +40625,10 @@
         <v>10.0</v>
       </c>
       <c r="C76" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D76" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="E76" t="n">
         <v>3.0</v>
@@ -40477,7 +40657,7 @@
         <v>519</v>
       </c>
       <c r="D77" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="E77" t="n">
         <v>5.0</v>
@@ -40503,7 +40683,7 @@
         <v>11.0</v>
       </c>
       <c r="C78" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D78" t="s">
         <v>520</v>
@@ -40535,7 +40715,7 @@
         <v>521</v>
       </c>
       <c r="D79" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="E79" t="n">
         <v>5.0</v>
@@ -40561,7 +40741,7 @@
         <v>11.0</v>
       </c>
       <c r="C80" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="D80" t="s">
         <v>407</v>
@@ -40593,7 +40773,7 @@
         <v>522</v>
       </c>
       <c r="D81" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E81" t="n">
         <v>6.0</v>
@@ -40619,7 +40799,7 @@
         <v>11.0</v>
       </c>
       <c r="C82" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D82" t="s">
         <v>405</v>
@@ -40648,10 +40828,10 @@
         <v>11.0</v>
       </c>
       <c r="C83" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="D83" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E83" t="n">
         <v>5.0</v>
@@ -40677,7 +40857,7 @@
         <v>11.0</v>
       </c>
       <c r="C84" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="D84" t="s">
         <v>523</v>
@@ -40709,7 +40889,7 @@
         <v>524</v>
       </c>
       <c r="D85" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E85" t="n">
         <v>5.0</v>
@@ -40735,7 +40915,7 @@
         <v>11.0</v>
       </c>
       <c r="C86" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D86" t="s">
         <v>399</v>
@@ -40767,7 +40947,7 @@
         <v>525</v>
       </c>
       <c r="D87" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E87" t="n">
         <v>7.0</v>
@@ -40793,10 +40973,10 @@
         <v>11.0</v>
       </c>
       <c r="C88" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="D88" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E88" t="n">
         <v>8.0</v>
@@ -40822,7 +41002,7 @@
         <v>11.0</v>
       </c>
       <c r="C89" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D89" t="s">
         <v>526</v>
@@ -40851,10 +41031,10 @@
         <v>10.0</v>
       </c>
       <c r="C90" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D90" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="E90" t="n">
         <v>5.0</v>
@@ -40880,10 +41060,10 @@
         <v>10.0</v>
       </c>
       <c r="C91" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="D91" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="E91" t="n">
         <v>6.0</v>
@@ -40912,7 +41092,7 @@
         <v>527</v>
       </c>
       <c r="D92" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="E92" t="n">
         <v>5.0</v>
@@ -40938,7 +41118,7 @@
         <v>11.0</v>
       </c>
       <c r="C93" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D93" t="s">
         <v>378</v>
@@ -40967,10 +41147,10 @@
         <v>10.0</v>
       </c>
       <c r="C94" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="D94" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="E94" t="n">
         <v>10.0</v>
@@ -40996,10 +41176,10 @@
         <v>10.0</v>
       </c>
       <c r="C95" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D95" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E95" t="n">
         <v>5.0</v>
@@ -41025,10 +41205,10 @@
         <v>10.0</v>
       </c>
       <c r="C96" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D96" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="E96" t="n">
         <v>4.0</v>
@@ -41054,10 +41234,10 @@
         <v>10.0</v>
       </c>
       <c r="C97" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D97" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -41086,7 +41266,7 @@
         <v>528</v>
       </c>
       <c r="D98" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E98" t="n">
         <v>4.0</v>
@@ -41112,7 +41292,7 @@
         <v>10.0</v>
       </c>
       <c r="C99" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D99" t="s">
         <v>529</v>
@@ -41144,7 +41324,7 @@
         <v>530</v>
       </c>
       <c r="D100" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="E100" t="n">
         <v>6.0</v>
@@ -41170,10 +41350,10 @@
         <v>10.0</v>
       </c>
       <c r="C101" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E101" t="n">
         <v>2.0</v>
@@ -41202,7 +41382,7 @@
         <v>531</v>
       </c>
       <c r="D102" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="E102" t="n">
         <v>5.0</v>
@@ -41228,7 +41408,7 @@
         <v>10.0</v>
       </c>
       <c r="C103" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="D103" t="s">
         <v>389</v>
@@ -41260,7 +41440,7 @@
         <v>532</v>
       </c>
       <c r="D104" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="E104" t="n">
         <v>6.0</v>
@@ -41286,7 +41466,7 @@
         <v>10.0</v>
       </c>
       <c r="C105" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="D105" t="s">
         <v>533</v>
@@ -41318,7 +41498,7 @@
         <v>534</v>
       </c>
       <c r="D106" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="E106" t="n">
         <v>3.0</v>
@@ -41344,7 +41524,7 @@
         <v>10.0</v>
       </c>
       <c r="C107" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="D107" t="s">
         <v>535</v>
@@ -41376,7 +41556,7 @@
         <v>536</v>
       </c>
       <c r="D108" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="E108" t="n">
         <v>6.0</v>
@@ -41402,7 +41582,7 @@
         <v>10.0</v>
       </c>
       <c r="C109" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="D109" t="s">
         <v>391</v>
@@ -41434,7 +41614,7 @@
         <v>537</v>
       </c>
       <c r="D110" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="E110" t="n">
         <v>6.0</v>
@@ -41460,7 +41640,7 @@
         <v>10.0</v>
       </c>
       <c r="C111" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="D111" t="s">
         <v>538</v>
@@ -41492,7 +41672,7 @@
         <v>539</v>
       </c>
       <c r="D112" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="E112" t="n">
         <v>6.0</v>
@@ -41518,7 +41698,7 @@
         <v>10.0</v>
       </c>
       <c r="C113" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D113" t="s">
         <v>540</v>
@@ -41550,7 +41730,7 @@
         <v>541</v>
       </c>
       <c r="D114" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="E114" t="n">
         <v>4.0</v>
@@ -41576,7 +41756,7 @@
         <v>11.0</v>
       </c>
       <c r="C115" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D115" t="s">
         <v>411</v>
@@ -41608,7 +41788,7 @@
         <v>542</v>
       </c>
       <c r="D116" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="E116" t="n">
         <v>5.0</v>
@@ -41634,10 +41814,10 @@
         <v>10.0</v>
       </c>
       <c r="C117" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D117" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="E117" t="n">
         <v>5.0</v>
@@ -41663,7 +41843,7 @@
         <v>10.0</v>
       </c>
       <c r="C118" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D118" t="s">
         <v>543</v>
@@ -41695,7 +41875,7 @@
         <v>544</v>
       </c>
       <c r="D119" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="E119" t="n">
         <v>3.0</v>
@@ -41721,7 +41901,7 @@
         <v>10.0</v>
       </c>
       <c r="C120" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D120" t="s">
         <v>545</v>
@@ -41753,7 +41933,7 @@
         <v>546</v>
       </c>
       <c r="D121" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E121" t="n">
         <v>2.0</v>
@@ -41779,7 +41959,7 @@
         <v>10.0</v>
       </c>
       <c r="C122" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D122" t="s">
         <v>547</v>
@@ -41811,7 +41991,7 @@
         <v>548</v>
       </c>
       <c r="D123" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E123" t="n">
         <v>2.0</v>
@@ -41837,10 +42017,10 @@
         <v>10.0</v>
       </c>
       <c r="C124" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="D124" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
@@ -41866,10 +42046,10 @@
         <v>10.0</v>
       </c>
       <c r="C125" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D125" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E125" t="n">
         <v>10.0</v>
@@ -41895,7 +42075,7 @@
         <v>10.0</v>
       </c>
       <c r="C126" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="D126" t="s">
         <v>549</v>
@@ -41927,7 +42107,7 @@
         <v>550</v>
       </c>
       <c r="D127" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="E127" t="n">
         <v>4.0</v>
@@ -41956,7 +42136,7 @@
         <v>551</v>
       </c>
       <c r="D128" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E128" t="n">
         <v>6.0</v>
@@ -41982,7 +42162,7 @@
         <v>11.0</v>
       </c>
       <c r="C129" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="D129" t="s">
         <v>552</v>
@@ -42014,7 +42194,7 @@
         <v>553</v>
       </c>
       <c r="D130" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="E130" t="n">
         <v>6.0</v>
@@ -42040,10 +42220,10 @@
         <v>11.0</v>
       </c>
       <c r="C131" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D131" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E131" t="n">
         <v>6.0</v>
@@ -42069,7 +42249,7 @@
         <v>11.0</v>
       </c>
       <c r="C132" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="D132" t="s">
         <v>554</v>
@@ -42098,10 +42278,10 @@
         <v>10.0</v>
       </c>
       <c r="C133" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D133" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="E133" t="n">
         <v>5.0</v>
@@ -42127,10 +42307,10 @@
         <v>10.0</v>
       </c>
       <c r="C134" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E134" t="n">
         <v>3.0</v>
@@ -42159,7 +42339,7 @@
         <v>555</v>
       </c>
       <c r="D135" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="E135" t="n">
         <v>10.0</v>
@@ -42185,7 +42365,7 @@
         <v>10.0</v>
       </c>
       <c r="C136" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="D136" t="s">
         <v>556</v>
@@ -42217,7 +42397,7 @@
         <v>557</v>
       </c>
       <c r="D137" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="E137" t="n">
         <v>4.0</v>
@@ -42243,7 +42423,7 @@
         <v>10.0</v>
       </c>
       <c r="C138" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D138" t="s">
         <v>558</v>
@@ -42275,7 +42455,7 @@
         <v>559</v>
       </c>
       <c r="D139" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="E139" t="n">
         <v>9.0</v>
@@ -42301,10 +42481,10 @@
         <v>10.0</v>
       </c>
       <c r="C140" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="D140" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="E140" t="n">
         <v>4.0</v>
@@ -42330,10 +42510,10 @@
         <v>10.0</v>
       </c>
       <c r="C141" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D141" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="E141" t="n">
         <v>8.0</v>
@@ -42359,7 +42539,7 @@
         <v>10.0</v>
       </c>
       <c r="C142" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D142" t="s">
         <v>390</v>
@@ -42391,7 +42571,7 @@
         <v>560</v>
       </c>
       <c r="D143" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="E143" t="n">
         <v>3.0</v>
@@ -42417,7 +42597,7 @@
         <v>10.0</v>
       </c>
       <c r="C144" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D144" t="s">
         <v>561</v>
@@ -42449,7 +42629,7 @@
         <v>562</v>
       </c>
       <c r="D145" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="E145" t="n">
         <v>4.0</v>
@@ -42475,7 +42655,7 @@
         <v>10.0</v>
       </c>
       <c r="C146" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="D146" t="s">
         <v>563</v>
@@ -42507,7 +42687,7 @@
         <v>564</v>
       </c>
       <c r="D147" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="E147" t="n">
         <v>9.0</v>
@@ -42533,7 +42713,7 @@
         <v>10.0</v>
       </c>
       <c r="C148" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="D148" t="s">
         <v>565</v>
@@ -42565,7 +42745,7 @@
         <v>566</v>
       </c>
       <c r="D149" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="E149" t="n">
         <v>5.0</v>
@@ -42591,10 +42771,10 @@
         <v>10.0</v>
       </c>
       <c r="C150" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="D150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E150" t="n">
         <v>4.0</v>
@@ -42623,7 +42803,7 @@
         <v>567</v>
       </c>
       <c r="D151" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="E151" t="n">
         <v>7.0</v>
@@ -42649,7 +42829,7 @@
         <v>10.0</v>
       </c>
       <c r="C152" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="D152" t="s">
         <v>568</v>
@@ -42681,7 +42861,7 @@
         <v>569</v>
       </c>
       <c r="D153" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E153" t="n">
         <v>5.0</v>
@@ -42707,7 +42887,7 @@
         <v>10.0</v>
       </c>
       <c r="C154" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="D154" t="s">
         <v>570</v>
@@ -42739,7 +42919,7 @@
         <v>571</v>
       </c>
       <c r="D155" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E155" t="n">
         <v>8.0</v>
@@ -42765,7 +42945,7 @@
         <v>10.0</v>
       </c>
       <c r="C156" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D156" t="s">
         <v>572</v>
@@ -42797,7 +42977,7 @@
         <v>573</v>
       </c>
       <c r="D157" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E157" t="n">
         <v>5.0</v>
@@ -42823,7 +43003,7 @@
         <v>10.0</v>
       </c>
       <c r="C158" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="D158" t="s">
         <v>574</v>
@@ -42855,7 +43035,7 @@
         <v>575</v>
       </c>
       <c r="D159" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="E159" t="n">
         <v>8.0</v>
@@ -42881,7 +43061,7 @@
         <v>10.0</v>
       </c>
       <c r="C160" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="D160" t="s">
         <v>576</v>
@@ -42913,7 +43093,7 @@
         <v>577</v>
       </c>
       <c r="D161" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E161" t="n">
         <v>7.0</v>
@@ -42939,7 +43119,7 @@
         <v>10.0</v>
       </c>
       <c r="C162" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="D162" t="s">
         <v>578</v>
@@ -42971,7 +43151,7 @@
         <v>579</v>
       </c>
       <c r="D163" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="E163" t="n">
         <v>5.0</v>
@@ -42997,7 +43177,7 @@
         <v>11.0</v>
       </c>
       <c r="C164" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="D164" t="s">
         <v>580</v>
@@ -43029,7 +43209,7 @@
         <v>581</v>
       </c>
       <c r="D165" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="E165" t="n">
         <v>4.0</v>
@@ -43055,7 +43235,7 @@
         <v>10.0</v>
       </c>
       <c r="C166" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="D166" t="s">
         <v>582</v>
@@ -43087,7 +43267,7 @@
         <v>583</v>
       </c>
       <c r="D167" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="E167" t="n">
         <v>6.0</v>
@@ -43113,7 +43293,7 @@
         <v>10.0</v>
       </c>
       <c r="C168" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="D168" t="s">
         <v>584</v>
@@ -43145,7 +43325,7 @@
         <v>585</v>
       </c>
       <c r="D169" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="E169" t="n">
         <v>8.0</v>
@@ -43171,7 +43351,7 @@
         <v>10.0</v>
       </c>
       <c r="C170" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="D170" t="s">
         <v>385</v>
@@ -43203,7 +43383,7 @@
         <v>587</v>
       </c>
       <c r="D171" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="E171" t="n">
         <v>4.0</v>
@@ -43229,7 +43409,7 @@
         <v>10.0</v>
       </c>
       <c r="C172" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="D172" t="s">
         <v>588</v>
@@ -43261,7 +43441,7 @@
         <v>589</v>
       </c>
       <c r="D173" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="E173" t="n">
         <v>7.0</v>
@@ -43287,7 +43467,7 @@
         <v>10.0</v>
       </c>
       <c r="C174" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="D174" t="s">
         <v>590</v>
@@ -43319,7 +43499,7 @@
         <v>591</v>
       </c>
       <c r="D175" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="E175" t="n">
         <v>7.0</v>
@@ -43345,7 +43525,7 @@
         <v>10.0</v>
       </c>
       <c r="C176" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="D176" t="s">
         <v>386</v>
@@ -43374,10 +43554,10 @@
         <v>10.0</v>
       </c>
       <c r="C177" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="D177" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="E177" t="n">
         <v>8.0</v>
@@ -43403,10 +43583,10 @@
         <v>10.0</v>
       </c>
       <c r="C178" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="D178" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E178" t="n">
         <v>2.0</v>
@@ -43432,10 +43612,10 @@
         <v>10.0</v>
       </c>
       <c r="C179" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D179" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="E179" t="n">
         <v>8.0</v>
@@ -43461,10 +43641,10 @@
         <v>10.0</v>
       </c>
       <c r="C180" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D180" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="E180" t="n">
         <v>6.0</v>
@@ -43490,7 +43670,7 @@
         <v>10.0</v>
       </c>
       <c r="C181" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="D181" t="s">
         <v>592</v>
@@ -43522,7 +43702,7 @@
         <v>593</v>
       </c>
       <c r="D182" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="E182" t="n">
         <v>5.0</v>
@@ -43548,7 +43728,7 @@
         <v>10.0</v>
       </c>
       <c r="C183" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="D183" t="s">
         <v>387</v>
@@ -43580,7 +43760,7 @@
         <v>594</v>
       </c>
       <c r="D184" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="E184" t="n">
         <v>4.0</v>
@@ -43606,7 +43786,7 @@
         <v>10.0</v>
       </c>
       <c r="C185" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="D185" t="s">
         <v>595</v>
@@ -43638,7 +43818,7 @@
         <v>596</v>
       </c>
       <c r="D186" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="E186" t="n">
         <v>6.0</v>
@@ -43664,7 +43844,7 @@
         <v>10.0</v>
       </c>
       <c r="C187" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="D187" t="s">
         <v>597</v>
@@ -43696,7 +43876,7 @@
         <v>598</v>
       </c>
       <c r="D188" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="E188" t="n">
         <v>7.0</v>
@@ -43722,10 +43902,10 @@
         <v>11.0</v>
       </c>
       <c r="C189" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="D189" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="E189" t="n">
         <v>6.0</v>
@@ -43751,10 +43931,10 @@
         <v>11.0</v>
       </c>
       <c r="C190" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D190" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="E190" t="n">
         <v>5.0</v>
@@ -43780,7 +43960,7 @@
         <v>11.0</v>
       </c>
       <c r="C191" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="D191" t="s">
         <v>599</v>
@@ -43812,7 +43992,7 @@
         <v>600</v>
       </c>
       <c r="D192" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="E192" t="n">
         <v>6.0</v>
@@ -43838,7 +44018,7 @@
         <v>11.0</v>
       </c>
       <c r="C193" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="D193" t="s">
         <v>601</v>
@@ -43870,7 +44050,7 @@
         <v>602</v>
       </c>
       <c r="D194" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="E194" t="n">
         <v>7.0</v>
@@ -43896,7 +44076,7 @@
         <v>10.0</v>
       </c>
       <c r="C195" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="D195" t="s">
         <v>603</v>
@@ -43928,7 +44108,7 @@
         <v>604</v>
       </c>
       <c r="D196" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="E196" t="n">
         <v>5.0</v>
@@ -43954,7 +44134,7 @@
         <v>10.0</v>
       </c>
       <c r="C197" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="D197" t="s">
         <v>605</v>
@@ -43986,7 +44166,7 @@
         <v>606</v>
       </c>
       <c r="D198" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="E198" t="n">
         <v>4.0</v>
@@ -44012,7 +44192,7 @@
         <v>10.0</v>
       </c>
       <c r="C199" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="D199" t="s">
         <v>607</v>
@@ -44044,7 +44224,7 @@
         <v>608</v>
       </c>
       <c r="D200" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="E200" t="n">
         <v>4.0</v>
@@ -44070,10 +44250,10 @@
         <v>10.0</v>
       </c>
       <c r="C201" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="D201" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E201" t="n">
         <v>2.0</v>
@@ -44102,7 +44282,7 @@
         <v>609</v>
       </c>
       <c r="D202" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="E202" t="n">
         <v>5.0</v>
@@ -44128,7 +44308,7 @@
         <v>10.0</v>
       </c>
       <c r="C203" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="D203" t="s">
         <v>610</v>
@@ -44160,7 +44340,7 @@
         <v>611</v>
       </c>
       <c r="D204" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="E204" t="n">
         <v>7.0</v>
@@ -44186,7 +44366,7 @@
         <v>10.0</v>
       </c>
       <c r="C205" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="D205" t="s">
         <v>612</v>
@@ -44218,7 +44398,7 @@
         <v>613</v>
       </c>
       <c r="D206" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="E206" t="n">
         <v>9.0</v>
@@ -44244,7 +44424,7 @@
         <v>10.0</v>
       </c>
       <c r="C207" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="D207" t="s">
         <v>614</v>
@@ -44276,7 +44456,7 @@
         <v>615</v>
       </c>
       <c r="D208" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="E208" t="n">
         <v>4.0</v>
@@ -44302,7 +44482,7 @@
         <v>10.0</v>
       </c>
       <c r="C209" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="D209" t="s">
         <v>616</v>
@@ -44334,7 +44514,7 @@
         <v>617</v>
       </c>
       <c r="D210" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="E210" t="n">
         <v>8.0</v>
@@ -44360,7 +44540,7 @@
         <v>10.0</v>
       </c>
       <c r="C211" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="D211" t="s">
         <v>618</v>
@@ -44392,7 +44572,7 @@
         <v>619</v>
       </c>
       <c r="D212" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="E212" t="n">
         <v>3.0</v>
@@ -44418,7 +44598,7 @@
         <v>10.0</v>
       </c>
       <c r="C213" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="D213" t="s">
         <v>620</v>
@@ -44450,7 +44630,7 @@
         <v>621</v>
       </c>
       <c r="D214" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="E214" t="n">
         <v>7.0</v>
@@ -44476,7 +44656,7 @@
         <v>10.0</v>
       </c>
       <c r="C215" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="D215" t="s">
         <v>622</v>
@@ -44508,7 +44688,7 @@
         <v>623</v>
       </c>
       <c r="D216" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="E216" t="n">
         <v>7.0</v>
@@ -44537,7 +44717,7 @@
         <v>624</v>
       </c>
       <c r="D217" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="E217" t="n">
         <v>8.0</v>
@@ -44563,7 +44743,7 @@
         <v>11.0</v>
       </c>
       <c r="C218" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="D218" t="s">
         <v>400</v>
@@ -44592,7 +44772,7 @@
         <v>10.0</v>
       </c>
       <c r="C219" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="D219" t="s">
         <v>625</v>
@@ -44624,7 +44804,7 @@
         <v>626</v>
       </c>
       <c r="D220" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="E220" t="n">
         <v>7.0</v>
@@ -44650,7 +44830,7 @@
         <v>10.0</v>
       </c>
       <c r="C221" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="D221" t="s">
         <v>627</v>
@@ -44682,7 +44862,7 @@
         <v>628</v>
       </c>
       <c r="D222" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="E222" t="n">
         <v>7.0</v>
@@ -44708,7 +44888,7 @@
         <v>11.0</v>
       </c>
       <c r="C223" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="D223" t="s">
         <v>629</v>
@@ -44740,7 +44920,7 @@
         <v>630</v>
       </c>
       <c r="D224" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="E224" t="n">
         <v>5.0</v>
@@ -44766,7 +44946,7 @@
         <v>11.0</v>
       </c>
       <c r="C225" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="D225" t="s">
         <v>631</v>
@@ -44798,7 +44978,7 @@
         <v>632</v>
       </c>
       <c r="D226" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="E226" t="n">
         <v>6.0</v>
@@ -44824,10 +45004,10 @@
         <v>11.0</v>
       </c>
       <c r="C227" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="D227" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="E227" t="n">
         <v>4.0</v>
@@ -44853,10 +45033,10 @@
         <v>11.0</v>
       </c>
       <c r="C228" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D228" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="E228" t="n">
         <v>4.0</v>
@@ -44882,10 +45062,10 @@
         <v>11.0</v>
       </c>
       <c r="C229" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D229" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="E229" t="n">
         <v>2.0</v>
@@ -44911,7 +45091,7 @@
         <v>11.0</v>
       </c>
       <c r="C230" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="D230" t="s">
         <v>633</v>
@@ -44943,7 +45123,7 @@
         <v>634</v>
       </c>
       <c r="D231" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="E231" t="n">
         <v>4.0</v>
@@ -44969,7 +45149,7 @@
         <v>11.0</v>
       </c>
       <c r="C232" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="D232" t="s">
         <v>635</v>
@@ -45001,7 +45181,7 @@
         <v>636</v>
       </c>
       <c r="D233" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="E233" t="n">
         <v>4.0</v>
@@ -45027,7 +45207,7 @@
         <v>10.0</v>
       </c>
       <c r="C234" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D234" t="s">
         <v>637</v>
@@ -45059,7 +45239,7 @@
         <v>638</v>
       </c>
       <c r="D235" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E235" t="n">
         <v>3.0</v>
@@ -45085,7 +45265,7 @@
         <v>10.0</v>
       </c>
       <c r="C236" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="D236" t="s">
         <v>639</v>
@@ -45117,7 +45297,7 @@
         <v>640</v>
       </c>
       <c r="D237" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="E237" t="n">
         <v>4.0</v>
@@ -45143,7 +45323,7 @@
         <v>10.0</v>
       </c>
       <c r="C238" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D238" t="s">
         <v>641</v>
@@ -45175,7 +45355,7 @@
         <v>642</v>
       </c>
       <c r="D239" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -45201,10 +45381,10 @@
         <v>10.0</v>
       </c>
       <c r="C240" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="D240" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -45230,10 +45410,10 @@
         <v>10.0</v>
       </c>
       <c r="C241" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="D241" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="E241" t="n">
         <v>2.0</v>
@@ -45259,7 +45439,7 @@
         <v>10.0</v>
       </c>
       <c r="C242" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="D242" t="s">
         <v>643</v>
@@ -45291,7 +45471,7 @@
         <v>644</v>
       </c>
       <c r="D243" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="E243" t="n">
         <v>6.0</v>
@@ -45317,7 +45497,7 @@
         <v>10.0</v>
       </c>
       <c r="C244" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="D244" t="s">
         <v>645</v>
@@ -45349,7 +45529,7 @@
         <v>646</v>
       </c>
       <c r="D245" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="E245" t="n">
         <v>3.0</v>
@@ -45375,7 +45555,7 @@
         <v>10.0</v>
       </c>
       <c r="C246" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="D246" t="s">
         <v>647</v>
@@ -45407,7 +45587,7 @@
         <v>648</v>
       </c>
       <c r="D247" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="E247" t="n">
         <v>3.0</v>
@@ -45433,10 +45613,10 @@
         <v>10.0</v>
       </c>
       <c r="C248" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="D248" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -45462,10 +45642,10 @@
         <v>10.0</v>
       </c>
       <c r="C249" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="D249" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="E249" t="n">
         <v>2.0</v>
@@ -45491,10 +45671,10 @@
         <v>10.0</v>
       </c>
       <c r="C250" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="D250" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="E250" t="n">
         <v>3.0</v>
@@ -45520,7 +45700,7 @@
         <v>10.0</v>
       </c>
       <c r="C251" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="D251" t="s">
         <v>649</v>
@@ -45552,7 +45732,7 @@
         <v>650</v>
       </c>
       <c r="D252" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="E252" t="n">
         <v>6.0</v>
@@ -45578,7 +45758,7 @@
         <v>11.0</v>
       </c>
       <c r="C253" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="D253" t="s">
         <v>651</v>
@@ -45610,7 +45790,7 @@
         <v>652</v>
       </c>
       <c r="D254" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="E254" t="n">
         <v>4.0</v>
@@ -45636,7 +45816,7 @@
         <v>11.0</v>
       </c>
       <c r="C255" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="D255" t="s">
         <v>653</v>
@@ -45668,7 +45848,7 @@
         <v>654</v>
       </c>
       <c r="D256" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="E256" t="n">
         <v>7.0</v>
@@ -45694,7 +45874,7 @@
         <v>10.0</v>
       </c>
       <c r="C257" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="D257" t="s">
         <v>655</v>
@@ -45726,7 +45906,7 @@
         <v>656</v>
       </c>
       <c r="D258" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="E258" t="n">
         <v>3.0</v>
@@ -45752,10 +45932,10 @@
         <v>10.0</v>
       </c>
       <c r="C259" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="D259" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E259" t="n">
         <v>9.0</v>
@@ -45781,10 +45961,10 @@
         <v>10.0</v>
       </c>
       <c r="C260" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D260" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="E260" t="n">
         <v>6.0</v>
@@ -45810,10 +45990,10 @@
         <v>10.0</v>
       </c>
       <c r="C261" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="D261" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E261" t="n">
         <v>10.0</v>
@@ -45842,7 +46022,7 @@
         <v>657</v>
       </c>
       <c r="D262" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="E262" t="n">
         <v>3.0</v>
@@ -45868,7 +46048,7 @@
         <v>10.0</v>
       </c>
       <c r="C263" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="D263" t="s">
         <v>658</v>
@@ -45900,7 +46080,7 @@
         <v>659</v>
       </c>
       <c r="D264" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="E264" t="n">
         <v>4.0</v>
@@ -45926,7 +46106,7 @@
         <v>316.0</v>
       </c>
       <c r="C265" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D265" t="s">
         <v>463</v>
@@ -45958,7 +46138,7 @@
         <v>660</v>
       </c>
       <c r="D266" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="E266" t="n">
         <v>4.0</v>
@@ -45984,7 +46164,7 @@
         <v>316.0</v>
       </c>
       <c r="C267" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D267" t="s">
         <v>661</v>
@@ -46016,7 +46196,7 @@
         <v>662</v>
       </c>
       <c r="D268" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="E268" t="n">
         <v>3.0</v>
@@ -46042,7 +46222,7 @@
         <v>11.0</v>
       </c>
       <c r="C269" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="D269" t="s">
         <v>663</v>
@@ -46074,7 +46254,7 @@
         <v>664</v>
       </c>
       <c r="D270" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="E270" t="n">
         <v>2.0</v>
@@ -46100,7 +46280,7 @@
         <v>11.0</v>
       </c>
       <c r="C271" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="D271" t="s">
         <v>665</v>
@@ -46132,7 +46312,7 @@
         <v>666</v>
       </c>
       <c r="D272" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="E272" t="n">
         <v>4.0</v>
@@ -46158,7 +46338,7 @@
         <v>11.0</v>
       </c>
       <c r="C273" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="D273" t="s">
         <v>667</v>
@@ -46190,7 +46370,7 @@
         <v>668</v>
       </c>
       <c r="D274" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="E274" t="n">
         <v>2.0</v>
@@ -46216,7 +46396,7 @@
         <v>11.0</v>
       </c>
       <c r="C275" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="D275" t="s">
         <v>669</v>
@@ -46248,7 +46428,7 @@
         <v>670</v>
       </c>
       <c r="D276" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="E276" t="n">
         <v>4.0</v>
@@ -46274,10 +46454,10 @@
         <v>11.0</v>
       </c>
       <c r="C277" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="D277" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E277" t="n">
         <v>4.0</v>
@@ -46303,10 +46483,10 @@
         <v>11.0</v>
       </c>
       <c r="C278" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D278" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="E278" t="n">
         <v>5.0</v>
@@ -46332,7 +46512,7 @@
         <v>11.0</v>
       </c>
       <c r="C279" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="D279" t="s">
         <v>671</v>
@@ -46364,7 +46544,7 @@
         <v>672</v>
       </c>
       <c r="D280" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="E280" t="n">
         <v>5.0</v>
@@ -46390,7 +46570,7 @@
         <v>11.0</v>
       </c>
       <c r="C281" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="D281" t="s">
         <v>673</v>
@@ -46422,7 +46602,7 @@
         <v>674</v>
       </c>
       <c r="D282" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="E282" t="n">
         <v>5.0</v>
@@ -46448,7 +46628,7 @@
         <v>11.0</v>
       </c>
       <c r="C283" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="D283" t="s">
         <v>675</v>
@@ -46480,7 +46660,7 @@
         <v>676</v>
       </c>
       <c r="D284" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="E284" t="n">
         <v>5.0</v>
@@ -46506,7 +46686,7 @@
         <v>11.0</v>
       </c>
       <c r="C285" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="D285" t="s">
         <v>677</v>
@@ -46538,7 +46718,7 @@
         <v>678</v>
       </c>
       <c r="D286" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="E286" t="n">
         <v>3.0</v>
@@ -46564,7 +46744,7 @@
         <v>10.0</v>
       </c>
       <c r="C287" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="D287" t="s">
         <v>679</v>
@@ -46596,7 +46776,7 @@
         <v>680</v>
       </c>
       <c r="D288" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="E288" t="n">
         <v>3.0</v>
@@ -46622,10 +46802,10 @@
         <v>10.0</v>
       </c>
       <c r="C289" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="D289" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E289" t="n">
         <v>8.0</v>
@@ -46651,10 +46831,10 @@
         <v>10.0</v>
       </c>
       <c r="C290" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D290" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="E290" t="n">
         <v>3.0</v>
@@ -46680,7 +46860,7 @@
         <v>10.0</v>
       </c>
       <c r="C291" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="D291" t="s">
         <v>681</v>
@@ -46712,7 +46892,7 @@
         <v>682</v>
       </c>
       <c r="D292" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="E292" t="n">
         <v>3.0</v>
@@ -46738,7 +46918,7 @@
         <v>10.0</v>
       </c>
       <c r="C293" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="D293" t="s">
         <v>683</v>
@@ -46770,7 +46950,7 @@
         <v>684</v>
       </c>
       <c r="D294" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="E294" t="n">
         <v>4.0</v>
@@ -46799,7 +46979,7 @@
         <v>685</v>
       </c>
       <c r="D295" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="E295" t="n">
         <v>3.0</v>
@@ -46825,7 +47005,7 @@
         <v>10.0</v>
       </c>
       <c r="C296" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="D296" t="s">
         <v>686</v>
@@ -46857,7 +47037,7 @@
         <v>687</v>
       </c>
       <c r="D297" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="E297" t="n">
         <v>8.0</v>
@@ -46883,7 +47063,7 @@
         <v>10.0</v>
       </c>
       <c r="C298" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="D298" t="s">
         <v>688</v>
@@ -46915,7 +47095,7 @@
         <v>689</v>
       </c>
       <c r="D299" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="E299" t="n">
         <v>3.0</v>
@@ -46941,7 +47121,7 @@
         <v>10.0</v>
       </c>
       <c r="C300" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="D300" t="s">
         <v>690</v>
@@ -46973,7 +47153,7 @@
         <v>691</v>
       </c>
       <c r="D301" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="E301" t="n">
         <v>3.0</v>
@@ -46999,7 +47179,7 @@
         <v>10.0</v>
       </c>
       <c r="C302" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="D302" t="s">
         <v>692</v>
@@ -47031,7 +47211,7 @@
         <v>693</v>
       </c>
       <c r="D303" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="E303" t="n">
         <v>3.0</v>
@@ -47057,7 +47237,7 @@
         <v>10.0</v>
       </c>
       <c r="C304" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="D304" t="s">
         <v>694</v>
@@ -47089,7 +47269,7 @@
         <v>695</v>
       </c>
       <c r="D305" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="E305" t="n">
         <v>2.0</v>
@@ -47115,7 +47295,7 @@
         <v>10.0</v>
       </c>
       <c r="C306" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="D306" t="s">
         <v>696</v>
@@ -47147,7 +47327,7 @@
         <v>697</v>
       </c>
       <c r="D307" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="E307" t="n">
         <v>5.0</v>
@@ -47173,7 +47353,7 @@
         <v>10.0</v>
       </c>
       <c r="C308" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="D308" t="s">
         <v>698</v>
@@ -47205,7 +47385,7 @@
         <v>699</v>
       </c>
       <c r="D309" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="E309" t="n">
         <v>5.0</v>
@@ -47231,7 +47411,7 @@
         <v>10.0</v>
       </c>
       <c r="C310" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="D310" t="s">
         <v>700</v>
@@ -47263,7 +47443,7 @@
         <v>701</v>
       </c>
       <c r="D311" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="E311" t="n">
         <v>3.0</v>
@@ -47289,7 +47469,7 @@
         <v>10.0</v>
       </c>
       <c r="C312" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="D312" t="s">
         <v>702</v>
@@ -47321,7 +47501,7 @@
         <v>703</v>
       </c>
       <c r="D313" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="E313" t="n">
         <v>2.0</v>
@@ -47347,7 +47527,7 @@
         <v>10.0</v>
       </c>
       <c r="C314" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="D314" t="s">
         <v>704</v>
@@ -47379,7 +47559,7 @@
         <v>705</v>
       </c>
       <c r="D315" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="E315" t="n">
         <v>3.0</v>
@@ -47405,7 +47585,7 @@
         <v>10.0</v>
       </c>
       <c r="C316" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="D316" t="s">
         <v>706</v>
@@ -47437,7 +47617,7 @@
         <v>707</v>
       </c>
       <c r="D317" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E317" t="n">
         <v>1.0</v>
@@ -47463,7 +47643,7 @@
         <v>10.0</v>
       </c>
       <c r="C318" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="D318" t="s">
         <v>708</v>
@@ -47495,7 +47675,7 @@
         <v>709</v>
       </c>
       <c r="D319" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="E319" t="n">
         <v>5.0</v>
@@ -47521,7 +47701,7 @@
         <v>10.0</v>
       </c>
       <c r="C320" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="D320" t="s">
         <v>710</v>
@@ -47553,7 +47733,7 @@
         <v>711</v>
       </c>
       <c r="D321" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="E321" t="n">
         <v>5.0</v>
@@ -47579,7 +47759,7 @@
         <v>10.0</v>
       </c>
       <c r="C322" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="D322" t="s">
         <v>712</v>
@@ -47611,7 +47791,7 @@
         <v>713</v>
       </c>
       <c r="D323" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="E323" t="n">
         <v>8.0</v>
@@ -47637,7 +47817,7 @@
         <v>10.0</v>
       </c>
       <c r="C324" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="D324" t="s">
         <v>714</v>
@@ -47669,7 +47849,7 @@
         <v>715</v>
       </c>
       <c r="D325" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="E325" t="n">
         <v>2.0</v>
@@ -47695,7 +47875,7 @@
         <v>10.0</v>
       </c>
       <c r="C326" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="D326" t="s">
         <v>716</v>
@@ -47727,7 +47907,7 @@
         <v>717</v>
       </c>
       <c r="D327" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="E327" t="n">
         <v>7.0</v>
@@ -47753,7 +47933,7 @@
         <v>10.0</v>
       </c>
       <c r="C328" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="D328" t="s">
         <v>718</v>
@@ -47785,7 +47965,7 @@
         <v>719</v>
       </c>
       <c r="D329" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E329" t="n">
         <v>0.0</v>
@@ -47811,7 +47991,7 @@
         <v>10.0</v>
       </c>
       <c r="C330" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="D330" t="s">
         <v>720</v>
@@ -47843,7 +48023,7 @@
         <v>721</v>
       </c>
       <c r="D331" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="E331" t="n">
         <v>5.0</v>
@@ -47869,7 +48049,7 @@
         <v>10.0</v>
       </c>
       <c r="C332" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="D332" t="s">
         <v>722</v>
@@ -47901,7 +48081,7 @@
         <v>723</v>
       </c>
       <c r="D333" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="E333" t="n">
         <v>2.0</v>
@@ -47927,7 +48107,7 @@
         <v>10.0</v>
       </c>
       <c r="C334" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="D334" t="s">
         <v>724</v>
@@ -47959,7 +48139,7 @@
         <v>725</v>
       </c>
       <c r="D335" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="E335" t="n">
         <v>5.0</v>
@@ -47985,7 +48165,7 @@
         <v>304.0</v>
       </c>
       <c r="C336" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="D336" t="s">
         <v>452</v>
@@ -48017,7 +48197,7 @@
         <v>726</v>
       </c>
       <c r="D337" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="E337" t="n">
         <v>5.0</v>
@@ -48043,7 +48223,7 @@
         <v>10.0</v>
       </c>
       <c r="C338" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="D338" t="s">
         <v>727</v>
@@ -48075,7 +48255,7 @@
         <v>728</v>
       </c>
       <c r="D339" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="E339" t="n">
         <v>5.0</v>
@@ -48101,7 +48281,7 @@
         <v>10.0</v>
       </c>
       <c r="C340" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="D340" t="s">
         <v>729</v>
@@ -48133,7 +48313,7 @@
         <v>730</v>
       </c>
       <c r="D341" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E341" t="n">
         <v>5.0</v>
@@ -48159,7 +48339,7 @@
         <v>11.0</v>
       </c>
       <c r="C342" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="D342" t="s">
         <v>731</v>
@@ -48191,7 +48371,7 @@
         <v>732</v>
       </c>
       <c r="D343" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="E343" t="n">
         <v>1.0</v>
@@ -48217,7 +48397,7 @@
         <v>11.0</v>
       </c>
       <c r="C344" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="D344" t="s">
         <v>733</v>
@@ -48249,7 +48429,7 @@
         <v>734</v>
       </c>
       <c r="D345" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="E345" t="n">
         <v>1.0</v>
@@ -48275,7 +48455,7 @@
         <v>11.0</v>
       </c>
       <c r="C346" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="D346" t="s">
         <v>735</v>
@@ -48307,7 +48487,7 @@
         <v>736</v>
       </c>
       <c r="D347" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="E347" t="n">
         <v>5.0</v>
@@ -48333,7 +48513,7 @@
         <v>304.0</v>
       </c>
       <c r="C348" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="D348" t="s">
         <v>453</v>
@@ -48362,10 +48542,10 @@
         <v>304.0</v>
       </c>
       <c r="C349" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="D349" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="E349" t="n">
         <v>6.0</v>
@@ -48391,7 +48571,7 @@
         <v>304.0</v>
       </c>
       <c r="C350" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="D350" t="s">
         <v>737</v>
@@ -48423,7 +48603,7 @@
         <v>738</v>
       </c>
       <c r="D351" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="E351" t="n">
         <v>5.0</v>
@@ -48449,7 +48629,7 @@
         <v>171.0</v>
       </c>
       <c r="C352" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="D352" t="s">
         <v>430</v>
@@ -48481,7 +48661,7 @@
         <v>740</v>
       </c>
       <c r="D353" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="E353" t="n">
         <v>5.0</v>
@@ -48507,7 +48687,7 @@
         <v>10.0</v>
       </c>
       <c r="C354" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="D354" t="s">
         <v>741</v>
@@ -48539,7 +48719,7 @@
         <v>742</v>
       </c>
       <c r="D355" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="E355" t="n">
         <v>5.0</v>
@@ -48565,7 +48745,7 @@
         <v>11.0</v>
       </c>
       <c r="C356" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="D356" t="s">
         <v>743</v>
@@ -48597,7 +48777,7 @@
         <v>744</v>
       </c>
       <c r="D357" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="E357" t="n">
         <v>2.0</v>
@@ -48623,7 +48803,7 @@
         <v>11.0</v>
       </c>
       <c r="C358" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="D358" t="s">
         <v>745</v>
@@ -48655,7 +48835,7 @@
         <v>746</v>
       </c>
       <c r="D359" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="E359" t="n">
         <v>2.0</v>
@@ -48681,7 +48861,7 @@
         <v>11.0</v>
       </c>
       <c r="C360" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="D360" t="s">
         <v>747</v>
@@ -48713,7 +48893,7 @@
         <v>748</v>
       </c>
       <c r="D361" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E361" t="n">
         <v>4.0</v>
@@ -48739,7 +48919,7 @@
         <v>11.0</v>
       </c>
       <c r="C362" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="D362" t="s">
         <v>749</v>
@@ -48771,7 +48951,7 @@
         <v>750</v>
       </c>
       <c r="D363" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="E363" t="n">
         <v>5.0</v>
@@ -48797,7 +48977,7 @@
         <v>11.0</v>
       </c>
       <c r="C364" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="D364" t="s">
         <v>751</v>
@@ -48829,7 +49009,7 @@
         <v>752</v>
       </c>
       <c r="D365" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="E365" t="n">
         <v>4.0</v>
@@ -48855,7 +49035,7 @@
         <v>304.0</v>
       </c>
       <c r="C366" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="D366" t="s">
         <v>753</v>
@@ -48887,7 +49067,7 @@
         <v>754</v>
       </c>
       <c r="D367" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="E367" t="n">
         <v>5.0</v>
@@ -48913,7 +49093,7 @@
         <v>309.0</v>
       </c>
       <c r="C368" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="D368" t="s">
         <v>456</v>
@@ -48945,7 +49125,7 @@
         <v>755</v>
       </c>
       <c r="D369" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="E369" t="n">
         <v>6.0</v>
@@ -48971,7 +49151,7 @@
         <v>10.0</v>
       </c>
       <c r="C370" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="D370" t="s">
         <v>756</v>
@@ -49003,7 +49183,7 @@
         <v>757</v>
       </c>
       <c r="D371" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="E371" t="n">
         <v>7.0</v>
@@ -49032,7 +49212,7 @@
         <v>758</v>
       </c>
       <c r="D372" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="E372" t="n">
         <v>7.0</v>
@@ -49058,7 +49238,7 @@
         <v>309.0</v>
       </c>
       <c r="C373" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="D373" t="s">
         <v>458</v>
@@ -49090,7 +49270,7 @@
         <v>759</v>
       </c>
       <c r="D374" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="E374" t="n">
         <v>4.0</v>
@@ -49116,7 +49296,7 @@
         <v>10.0</v>
       </c>
       <c r="C375" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="D375" t="s">
         <v>760</v>
@@ -49148,7 +49328,7 @@
         <v>761</v>
       </c>
       <c r="D376" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="E376" t="n">
         <v>3.0</v>
@@ -49174,7 +49354,7 @@
         <v>10.0</v>
       </c>
       <c r="C377" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="D377" t="s">
         <v>762</v>
@@ -49206,7 +49386,7 @@
         <v>763</v>
       </c>
       <c r="D378" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="E378" t="n">
         <v>2.0</v>
@@ -49232,7 +49412,7 @@
         <v>10.0</v>
       </c>
       <c r="C379" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="D379" t="s">
         <v>764</v>
@@ -49264,7 +49444,7 @@
         <v>765</v>
       </c>
       <c r="D380" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="E380" t="n">
         <v>7.0</v>
@@ -49290,7 +49470,7 @@
         <v>11.0</v>
       </c>
       <c r="C381" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="D381" t="s">
         <v>766</v>
@@ -49322,7 +49502,7 @@
         <v>767</v>
       </c>
       <c r="D382" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="E382" t="n">
         <v>5.0</v>
@@ -49348,7 +49528,7 @@
         <v>11.0</v>
       </c>
       <c r="C383" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="D383" t="s">
         <v>768</v>
@@ -49380,7 +49560,7 @@
         <v>769</v>
       </c>
       <c r="D384" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="E384" t="n">
         <v>7.0</v>
@@ -49406,7 +49586,7 @@
         <v>11.0</v>
       </c>
       <c r="C385" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="D385" t="s">
         <v>770</v>
@@ -49438,7 +49618,7 @@
         <v>771</v>
       </c>
       <c r="D386" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="E386" t="n">
         <v>5.0</v>
@@ -49464,7 +49644,7 @@
         <v>10.0</v>
       </c>
       <c r="C387" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="D387" t="s">
         <v>772</v>
@@ -49496,7 +49676,7 @@
         <v>773</v>
       </c>
       <c r="D388" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="E388" t="n">
         <v>5.0</v>
@@ -49522,7 +49702,7 @@
         <v>309.0</v>
       </c>
       <c r="C389" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="D389" t="s">
         <v>457</v>
@@ -49554,7 +49734,7 @@
         <v>774</v>
       </c>
       <c r="D390" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="E390" t="n">
         <v>6.0</v>
@@ -49580,7 +49760,7 @@
         <v>11.0</v>
       </c>
       <c r="C391" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="D391" t="s">
         <v>775</v>
@@ -49612,7 +49792,7 @@
         <v>776</v>
       </c>
       <c r="D392" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="E392" t="n">
         <v>4.0</v>
@@ -49638,7 +49818,7 @@
         <v>10.0</v>
       </c>
       <c r="C393" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="D393" t="s">
         <v>777</v>
@@ -49670,7 +49850,7 @@
         <v>778</v>
       </c>
       <c r="D394" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="E394" t="n">
         <v>10.0</v>
@@ -49699,7 +49879,7 @@
         <v>779</v>
       </c>
       <c r="D395" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="E395" t="n">
         <v>7.0</v>
@@ -49725,7 +49905,7 @@
         <v>174.0</v>
       </c>
       <c r="C396" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="D396" t="s">
         <v>431</v>
@@ -49757,7 +49937,7 @@
         <v>780</v>
       </c>
       <c r="D397" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="E397" t="n">
         <v>7.0</v>
@@ -49783,10 +49963,10 @@
         <v>10.0</v>
       </c>
       <c r="C398" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="D398" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="E398" t="n">
         <v>3.0</v>
@@ -49812,10 +49992,10 @@
         <v>10.0</v>
       </c>
       <c r="C399" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="D399" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="E399" t="n">
         <v>7.0</v>
@@ -49841,7 +50021,7 @@
         <v>10.0</v>
       </c>
       <c r="C400" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="D400" t="s">
         <v>781</v>
@@ -49873,7 +50053,7 @@
         <v>782</v>
       </c>
       <c r="D401" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="E401" t="n">
         <v>3.0</v>
@@ -49899,7 +50079,7 @@
         <v>178.0</v>
       </c>
       <c r="C402" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="D402" t="s">
         <v>439</v>
@@ -49931,7 +50111,7 @@
         <v>783</v>
       </c>
       <c r="D403" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="E403" t="n">
         <v>8.0</v>
@@ -49957,7 +50137,7 @@
         <v>10.0</v>
       </c>
       <c r="C404" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="D404" t="s">
         <v>784</v>
@@ -49989,7 +50169,7 @@
         <v>785</v>
       </c>
       <c r="D405" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="E405" t="n">
         <v>7.0</v>
@@ -50015,7 +50195,7 @@
         <v>10.0</v>
       </c>
       <c r="C406" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="D406" t="s">
         <v>786</v>
@@ -50047,7 +50227,7 @@
         <v>787</v>
       </c>
       <c r="D407" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="E407" t="n">
         <v>4.0</v>
@@ -50073,7 +50253,7 @@
         <v>178.0</v>
       </c>
       <c r="C408" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="D408" t="s">
         <v>440</v>
@@ -50105,7 +50285,7 @@
         <v>788</v>
       </c>
       <c r="D409" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="E409" t="n">
         <v>8.0</v>
@@ -50131,7 +50311,7 @@
         <v>293.0</v>
       </c>
       <c r="C410" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="D410" t="s">
         <v>443</v>
@@ -50163,7 +50343,7 @@
         <v>789</v>
       </c>
       <c r="D411" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="E411" t="n">
         <v>4.0</v>
@@ -50189,7 +50369,7 @@
         <v>11.0</v>
       </c>
       <c r="C412" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="D412" t="s">
         <v>790</v>
@@ -50221,7 +50401,7 @@
         <v>791</v>
       </c>
       <c r="D413" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="E413" t="n">
         <v>4.0</v>
@@ -50247,7 +50427,7 @@
         <v>178.0</v>
       </c>
       <c r="C414" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="D414" t="s">
         <v>792</v>
@@ -50279,7 +50459,7 @@
         <v>793</v>
       </c>
       <c r="D415" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="E415" t="n">
         <v>5.0</v>
@@ -50305,7 +50485,7 @@
         <v>17.0</v>
       </c>
       <c r="C416" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="D416" t="s">
         <v>427</v>
@@ -50337,7 +50517,7 @@
         <v>794</v>
       </c>
       <c r="D417" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="E417" t="n">
         <v>6.0</v>
@@ -50363,7 +50543,7 @@
         <v>177.0</v>
       </c>
       <c r="C418" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="D418" t="s">
         <v>435</v>
@@ -50392,10 +50572,10 @@
         <v>177.0</v>
       </c>
       <c r="C419" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D419" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="E419" t="n">
         <v>4.0</v>
@@ -50421,7 +50601,7 @@
         <v>177.0</v>
       </c>
       <c r="C420" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D420" t="s">
         <v>795</v>
@@ -50453,7 +50633,7 @@
         <v>796</v>
       </c>
       <c r="D421" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="E421" t="n">
         <v>2.0</v>
@@ -50479,7 +50659,7 @@
         <v>293.0</v>
       </c>
       <c r="C422" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="D422" t="s">
         <v>446</v>
@@ -50511,7 +50691,7 @@
         <v>797</v>
       </c>
       <c r="D423" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E423" t="n">
         <v>4.0</v>
@@ -50540,7 +50720,7 @@
         <v>798</v>
       </c>
       <c r="D424" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="E424" t="n">
         <v>5.0</v>
@@ -50566,10 +50746,10 @@
         <v>17.0</v>
       </c>
       <c r="C425" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="D425" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E425" t="n">
         <v>4.0</v>
@@ -50595,10 +50775,10 @@
         <v>11.0</v>
       </c>
       <c r="C426" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D426" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="E426" t="n">
         <v>7.0</v>
@@ -50624,7 +50804,7 @@
         <v>11.0</v>
       </c>
       <c r="C427" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="D427" t="s">
         <v>799</v>
@@ -50656,7 +50836,7 @@
         <v>800</v>
       </c>
       <c r="D428" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="E428" t="n">
         <v>6.0</v>
@@ -50682,7 +50862,7 @@
         <v>10.0</v>
       </c>
       <c r="C429" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="D429" t="s">
         <v>801</v>
@@ -50714,7 +50894,7 @@
         <v>802</v>
       </c>
       <c r="D430" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="E430" t="n">
         <v>1.0</v>
@@ -50740,7 +50920,7 @@
         <v>11.0</v>
       </c>
       <c r="C431" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="D431" t="s">
         <v>803</v>
@@ -50772,7 +50952,7 @@
         <v>804</v>
       </c>
       <c r="D432" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="E432" t="n">
         <v>2.0</v>
@@ -50798,7 +50978,7 @@
         <v>11.0</v>
       </c>
       <c r="C433" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="D433" t="s">
         <v>805</v>
@@ -50830,7 +51010,7 @@
         <v>806</v>
       </c>
       <c r="D434" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="E434" t="n">
         <v>6.0</v>
@@ -50856,7 +51036,7 @@
         <v>11.0</v>
       </c>
       <c r="C435" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="D435" t="s">
         <v>807</v>
@@ -50888,7 +51068,7 @@
         <v>808</v>
       </c>
       <c r="D436" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="E436" t="n">
         <v>5.0</v>
@@ -50914,7 +51094,7 @@
         <v>11.0</v>
       </c>
       <c r="C437" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D437" t="s">
         <v>809</v>
@@ -50946,7 +51126,7 @@
         <v>810</v>
       </c>
       <c r="D438" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="E438" t="n">
         <v>3.0</v>
@@ -50972,7 +51152,7 @@
         <v>11.0</v>
       </c>
       <c r="C439" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="D439" t="s">
         <v>811</v>
@@ -51004,7 +51184,7 @@
         <v>812</v>
       </c>
       <c r="D440" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="E440" t="n">
         <v>2.0</v>
@@ -51030,10 +51210,10 @@
         <v>11.0</v>
       </c>
       <c r="C441" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="D441" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E441" t="n">
         <v>3.0</v>
@@ -51059,10 +51239,10 @@
         <v>11.0</v>
       </c>
       <c r="C442" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D442" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="E442" t="n">
         <v>3.0</v>
@@ -51088,7 +51268,7 @@
         <v>11.0</v>
       </c>
       <c r="C443" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="D443" t="s">
         <v>813</v>
@@ -51120,7 +51300,7 @@
         <v>814</v>
       </c>
       <c r="D444" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="E444" t="n">
         <v>5.0</v>
@@ -51146,7 +51326,7 @@
         <v>10.0</v>
       </c>
       <c r="C445" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="D445" t="s">
         <v>815</v>
@@ -51178,7 +51358,7 @@
         <v>816</v>
       </c>
       <c r="D446" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="E446" t="n">
         <v>3.0</v>
@@ -51204,7 +51384,7 @@
         <v>10.0</v>
       </c>
       <c r="C447" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="D447" t="s">
         <v>817</v>
@@ -51236,7 +51416,7 @@
         <v>819</v>
       </c>
       <c r="D448" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="E448" t="n">
         <v>3.0</v>
@@ -51265,7 +51445,7 @@
         <v>820</v>
       </c>
       <c r="D449" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="E449" t="n">
         <v>5.0</v>
@@ -51291,10 +51471,10 @@
         <v>17.0</v>
       </c>
       <c r="C450" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="D450" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E450" t="n">
         <v>4.0</v>
@@ -51320,7 +51500,7 @@
         <v>293.0</v>
       </c>
       <c r="C451" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="D451" t="s">
         <v>442</v>
@@ -51352,7 +51532,7 @@
         <v>821</v>
       </c>
       <c r="D452" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="E452" t="n">
         <v>2.0</v>
@@ -51378,7 +51558,7 @@
         <v>293.0</v>
       </c>
       <c r="C453" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="D453" t="s">
         <v>822</v>
@@ -51410,7 +51590,7 @@
         <v>823</v>
       </c>
       <c r="D454" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="E454" t="n">
         <v>4.0</v>
@@ -51439,7 +51619,7 @@
         <v>824</v>
       </c>
       <c r="D455" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="E455" t="n">
         <v>3.0</v>
@@ -51465,10 +51645,10 @@
         <v>17.0</v>
       </c>
       <c r="C456" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D456" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E456" t="n">
         <v>3.0</v>
@@ -51497,7 +51677,7 @@
         <v>825</v>
       </c>
       <c r="D457" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="E457" t="n">
         <v>3.0</v>
@@ -51523,7 +51703,7 @@
         <v>17.0</v>
       </c>
       <c r="C458" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="D458" t="s">
         <v>826</v>
@@ -51555,7 +51735,7 @@
         <v>827</v>
       </c>
       <c r="D459" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="E459" t="n">
         <v>6.0</v>
@@ -51584,7 +51764,7 @@
         <v>828</v>
       </c>
       <c r="D460" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="E460" t="n">
         <v>3.0</v>
@@ -51610,7 +51790,7 @@
         <v>17.0</v>
       </c>
       <c r="C461" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="D461" t="s">
         <v>829</v>
@@ -51642,7 +51822,7 @@
         <v>830</v>
       </c>
       <c r="D462" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="E462" t="n">
         <v>4.0</v>
@@ -51668,7 +51848,7 @@
         <v>10.0</v>
       </c>
       <c r="C463" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="D463" t="s">
         <v>831</v>
@@ -51700,7 +51880,7 @@
         <v>832</v>
       </c>
       <c r="D464" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="E464" t="n">
         <v>4.0</v>
@@ -51726,10 +51906,10 @@
         <v>17.0</v>
       </c>
       <c r="C465" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="D465" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E465" t="n">
         <v>4.0</v>
@@ -51758,7 +51938,7 @@
         <v>833</v>
       </c>
       <c r="D466" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="E466" t="n">
         <v>2.0</v>
@@ -51784,7 +51964,7 @@
         <v>177.0</v>
       </c>
       <c r="C467" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="D467" t="s">
         <v>433</v>
@@ -51816,7 +51996,7 @@
         <v>834</v>
       </c>
       <c r="D468" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="E468" t="n">
         <v>5.0</v>
@@ -51832,6 +52012,122 @@
       </c>
       <c r="I468" t="n">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="B469" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C469" t="s">
+        <v>836</v>
+      </c>
+      <c r="D469" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E469" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I469" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="B470" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D470" t="s">
+        <v>837</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="B471" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C471" t="s">
+        <v>838</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E471" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G471" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="B472" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D472" t="s">
+        <v>839</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="1458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="1464">
   <si>
     <t>id</t>
   </si>
@@ -1187,129 +1187,132 @@
     <t>countFinish</t>
   </si>
   <si>
+    <t>2023-07-30 14:45:57</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:09:16</t>
+  </si>
+  <si>
+    <t>2023-07-28 16:03:15</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:05:33</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:58:08</t>
+  </si>
+  <si>
+    <t>2023-07-24 12:37:57</t>
+  </si>
+  <si>
+    <t>2023-07-23 16:57:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 17:06:46</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:46:52</t>
+  </si>
+  <si>
+    <t>2023-07-17 16:03:47</t>
+  </si>
+  <si>
+    <t>2023-08-16 00:51:31</t>
+  </si>
+  <si>
+    <t>2023-07-28 20:12:20</t>
+  </si>
+  <si>
+    <t>2023-07-31 21:27:56</t>
+  </si>
+  <si>
     <t>2023-07-28 13:15:22</t>
   </si>
   <si>
-    <t>2023-07-23 18:09:16</t>
-  </si>
-  <si>
-    <t>2023-07-28 16:03:15</t>
-  </si>
-  <si>
-    <t>2023-07-31 16:05:33</t>
-  </si>
-  <si>
-    <t>2023-07-17 21:58:08</t>
-  </si>
-  <si>
-    <t>2023-07-24 12:37:57</t>
-  </si>
-  <si>
-    <t>2023-07-23 16:57:05</t>
-  </si>
-  <si>
-    <t>2023-07-23 17:06:46</t>
-  </si>
-  <si>
-    <t>2023-08-03 22:46:52</t>
-  </si>
-  <si>
-    <t>2023-07-17 16:03:47</t>
-  </si>
-  <si>
-    <t>2023-07-30 14:45:57</t>
-  </si>
-  <si>
-    <t>2023-07-28 20:12:20</t>
-  </si>
-  <si>
-    <t>2023-07-31 21:27:56</t>
-  </si>
-  <si>
-    <t>2023-08-16 00:51:31</t>
+    <t>2023-07-20 09:24:58</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:34:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 14:39:46</t>
+  </si>
+  <si>
+    <t>2023-07-17 22:58:34</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:48:44</t>
+  </si>
+  <si>
+    <t>2023-07-25 22:59:15</t>
   </si>
   <si>
     <t>2023-07-25 23:14:38</t>
   </si>
   <si>
+    <t>2023-07-14 09:15:20</t>
+  </si>
+  <si>
+    <t>2023-07-13 15:01:50</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:34:55</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:05:50</t>
+  </si>
+  <si>
+    <t>2023-07-19 09:31:09</t>
+  </si>
+  <si>
+    <t>2023-07-17 09:39:08</t>
+  </si>
+  <si>
+    <t>2023-07-14 09:36:49</t>
+  </si>
+  <si>
     <t>2023-07-18 16:10:36</t>
   </si>
   <si>
     <t>2023-07-15 12:33:19</t>
   </si>
   <si>
+    <t>2023-07-14 10:12:51</t>
+  </si>
+  <si>
     <t>2023-07-14 09:40:24</t>
   </si>
   <si>
+    <t>2023-07-14 10:00:21</t>
+  </si>
+  <si>
+    <t>2023-07-13 15:09:22</t>
+  </si>
+  <si>
     <t>2023-07-21 00:15:24</t>
   </si>
   <si>
-    <t>2023-07-25 22:59:15</t>
-  </si>
-  <si>
-    <t>2023-07-13 15:01:50</t>
-  </si>
-  <si>
-    <t>2023-07-14 09:15:20</t>
-  </si>
-  <si>
-    <t>2023-07-21 11:34:55</t>
-  </si>
-  <si>
-    <t>2023-07-13 14:39:46</t>
-  </si>
-  <si>
-    <t>2023-07-21 00:05:50</t>
-  </si>
-  <si>
-    <t>2023-07-19 09:31:09</t>
-  </si>
-  <si>
-    <t>2023-07-17 09:39:08</t>
-  </si>
-  <si>
-    <t>2023-07-14 09:36:49</t>
-  </si>
-  <si>
-    <t>2023-07-14 10:12:51</t>
-  </si>
-  <si>
-    <t>2023-07-14 10:00:21</t>
-  </si>
-  <si>
-    <t>2023-07-20 09:24:58</t>
-  </si>
-  <si>
-    <t>2023-07-13 15:09:22</t>
-  </si>
-  <si>
     <t>2023-08-06 23:21:52</t>
   </si>
   <si>
-    <t>2023-07-21 11:48:44</t>
-  </si>
-  <si>
-    <t>2023-07-17 22:58:34</t>
-  </si>
-  <si>
-    <t>2023-07-20 09:34:04</t>
+    <t>2023-07-19 10:35:12</t>
   </si>
   <si>
     <t>2023-07-19 10:56:13</t>
   </si>
   <si>
-    <t>2023-07-19 10:35:12</t>
+    <t>2023-08-31 00:55:24</t>
   </si>
   <si>
     <t>2023-08-26 02:27:54</t>
   </si>
   <si>
-    <t>2023-08-31 00:55:24</t>
-  </si>
-  <si>
     <t>2023-08-23 23:52:54</t>
   </si>
   <si>
+    <t>2023-08-24 10:49:07</t>
+  </si>
+  <si>
     <t>2023-08-25 02:05:30</t>
   </si>
   <si>
@@ -1319,9 +1322,6 @@
     <t>2023-08-29 10:57:36</t>
   </si>
   <si>
-    <t>2023-08-24 10:49:07</t>
-  </si>
-  <si>
     <t>2023-08-16 21:51:10</t>
   </si>
   <si>
@@ -1331,33 +1331,33 @@
     <t>2023-08-16 21:53:03</t>
   </si>
   <si>
+    <t>2023-08-22 15:59:44</t>
+  </si>
+  <si>
     <t>2023-08-22 09:35:37</t>
   </si>
   <si>
-    <t>2023-08-22 15:59:44</t>
+    <t>2023-08-27 14:22:51</t>
+  </si>
+  <si>
+    <t>2023-08-29 10:06:03</t>
+  </si>
+  <si>
+    <t>2023-08-29 10:24:41</t>
+  </si>
+  <si>
+    <t>2023-08-29 23:51:31</t>
+  </si>
+  <si>
+    <t>2023-08-22 21:01:39</t>
+  </si>
+  <si>
+    <t>2023-08-25 10:02:17</t>
   </si>
   <si>
     <t>2023-08-24 00:29:10</t>
   </si>
   <si>
-    <t>2023-08-22 21:01:39</t>
-  </si>
-  <si>
-    <t>2023-08-29 10:06:03</t>
-  </si>
-  <si>
-    <t>2023-08-27 14:22:51</t>
-  </si>
-  <si>
-    <t>2023-08-29 10:24:41</t>
-  </si>
-  <si>
-    <t>2023-08-29 23:51:31</t>
-  </si>
-  <si>
-    <t>2023-08-25 10:02:17</t>
-  </si>
-  <si>
     <t>2023-08-22 20:07:11</t>
   </si>
   <si>
@@ -1394,12 +1394,12 @@
     <t>2023-08-29 18:40:33</t>
   </si>
   <si>
+    <t>2023-08-16 09:27:38</t>
+  </si>
+  <si>
     <t>2023-08-16 10:26:00</t>
   </si>
   <si>
-    <t>2023-08-16 09:27:38</t>
-  </si>
-  <si>
     <t>2023-08-02 14:42:46</t>
   </si>
   <si>
@@ -1418,21 +1418,21 @@
     <t>2023-08-16 19:23:24</t>
   </si>
   <si>
+    <t>2023-08-19 13:11:19</t>
+  </si>
+  <si>
+    <t>2023-08-21 09:19:08</t>
+  </si>
+  <si>
+    <t>2023-08-22 10:07:14</t>
+  </si>
+  <si>
+    <t>2023-08-20 15:52:17</t>
+  </si>
+  <si>
     <t>2023-08-19 14:15:52</t>
   </si>
   <si>
-    <t>2023-08-21 09:19:08</t>
-  </si>
-  <si>
-    <t>2023-08-22 10:07:14</t>
-  </si>
-  <si>
-    <t>2023-08-20 15:52:17</t>
-  </si>
-  <si>
-    <t>2023-08-19 13:11:19</t>
-  </si>
-  <si>
     <t>2023-08-29 08:32:35</t>
   </si>
   <si>
@@ -2648,6 +2648,15 @@
     <t>2023-08-31 08:56:48</t>
   </si>
   <si>
+    <t>2023-08-31 09:03:43</t>
+  </si>
+  <si>
+    <t>2023-08-31 23:07:02</t>
+  </si>
+  <si>
+    <t>2023-08-31 23:10:50</t>
+  </si>
+  <si>
     <t>list_exercises_ids</t>
   </si>
   <si>
@@ -4392,6 +4401,15 @@
   </si>
   <si>
     <t>2023-08-31 08:56:57</t>
+  </si>
+  <si>
+    <t>2023-08-31 09:03:36</t>
+  </si>
+  <si>
+    <t>2023-08-31 23:07:16</t>
+  </si>
+  <si>
+    <t>2023-08-31 23:10:39</t>
   </si>
 </sst>
 </file>
@@ -18658,16 +18676,16 @@
         <v>10.0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.0</v>
+        <v>6.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
         <v>389</v>
       </c>
       <c r="E2" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -18828,16 +18846,16 @@
         <v>10.0</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12" t="s">
         <v>399</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -18879,16 +18897,16 @@
         <v>10.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>35.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" t="s">
         <v>402</v>
       </c>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="16">
@@ -18896,16 +18914,16 @@
         <v>11.0</v>
       </c>
       <c r="B16" t="n">
-        <v>35.0</v>
+        <v>18.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D16" t="s">
         <v>403</v>
       </c>
       <c r="E16" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -18913,16 +18931,16 @@
         <v>11.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D17" t="s">
         <v>404</v>
       </c>
       <c r="E17" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
@@ -18930,16 +18948,16 @@
         <v>11.0</v>
       </c>
       <c r="B18" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" t="s">
         <v>405</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -18947,16 +18965,16 @@
         <v>11.0</v>
       </c>
       <c r="B19" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19" t="s">
         <v>406</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -18964,16 +18982,16 @@
         <v>11.0</v>
       </c>
       <c r="B20" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20" t="s">
         <v>407</v>
       </c>
       <c r="E20" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -18998,16 +19016,16 @@
         <v>11.0</v>
       </c>
       <c r="B22" t="n">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D22" t="s">
         <v>409</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="23">
@@ -19032,16 +19050,16 @@
         <v>11.0</v>
       </c>
       <c r="B24" t="n">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" t="s">
         <v>411</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
@@ -19049,10 +19067,10 @@
         <v>11.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D25" t="s">
         <v>412</v>
@@ -19134,16 +19152,16 @@
         <v>11.0</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" t="s">
         <v>417</v>
       </c>
       <c r="E30" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="31">
@@ -19151,7 +19169,7 @@
         <v>11.0</v>
       </c>
       <c r="B31" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="C31" t="n">
         <v>3.0</v>
@@ -19160,7 +19178,7 @@
         <v>418</v>
       </c>
       <c r="E31" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -19168,16 +19186,16 @@
         <v>11.0</v>
       </c>
       <c r="B32" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="s">
         <v>419</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
@@ -19185,16 +19203,16 @@
         <v>11.0</v>
       </c>
       <c r="B33" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D33" t="s">
         <v>420</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -19202,16 +19220,16 @@
         <v>11.0</v>
       </c>
       <c r="B34" t="n">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D34" t="s">
         <v>421</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35">
@@ -19219,16 +19237,16 @@
         <v>11.0</v>
       </c>
       <c r="B35" t="n">
-        <v>33.0</v>
+        <v>6.0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D35" t="s">
         <v>422</v>
       </c>
       <c r="E35" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -19236,16 +19254,16 @@
         <v>11.0</v>
       </c>
       <c r="B36" t="n">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D36" t="s">
         <v>423</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="37">
@@ -19253,16 +19271,16 @@
         <v>11.0</v>
       </c>
       <c r="B37" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D37" t="s">
         <v>424</v>
       </c>
       <c r="E37" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -19270,7 +19288,7 @@
         <v>14.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -19279,7 +19297,7 @@
         <v>425</v>
       </c>
       <c r="E38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -19287,7 +19305,7 @@
         <v>14.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -19296,7 +19314,7 @@
         <v>426</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -19304,10 +19322,10 @@
         <v>17.0</v>
       </c>
       <c r="B40" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" t="s">
         <v>427</v>
@@ -19321,16 +19339,16 @@
         <v>17.0</v>
       </c>
       <c r="B41" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D41" t="s">
         <v>428</v>
       </c>
       <c r="E41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -19355,16 +19373,16 @@
         <v>17.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="s">
         <v>430</v>
       </c>
       <c r="E43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -19372,7 +19390,7 @@
         <v>17.0</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -19381,7 +19399,7 @@
         <v>431</v>
       </c>
       <c r="E44" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -19389,10 +19407,10 @@
         <v>17.0</v>
       </c>
       <c r="B45" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="s">
         <v>432</v>
@@ -19406,7 +19424,7 @@
         <v>17.0</v>
       </c>
       <c r="B46" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="C46" t="n">
         <v>2.0</v>
@@ -19474,7 +19492,7 @@
         <v>174.0</v>
       </c>
       <c r="B50" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C50" t="n">
         <v>1.0</v>
@@ -19483,7 +19501,7 @@
         <v>437</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -19491,7 +19509,7 @@
         <v>174.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
         <v>1.0</v>
@@ -19500,7 +19518,7 @@
         <v>438</v>
       </c>
       <c r="E51" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -19508,16 +19526,16 @@
         <v>177.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D52" t="s">
         <v>439</v>
       </c>
       <c r="E52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -19525,10 +19543,10 @@
         <v>177.0</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D53" t="s">
         <v>440</v>
@@ -19542,7 +19560,7 @@
         <v>177.0</v>
       </c>
       <c r="B54" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C54" t="n">
         <v>3.0</v>
@@ -19551,7 +19569,7 @@
         <v>441</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -19559,10 +19577,10 @@
         <v>177.0</v>
       </c>
       <c r="B55" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D55" t="s">
         <v>442</v>
@@ -19576,16 +19594,16 @@
         <v>177.0</v>
       </c>
       <c r="B56" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="C56" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D56" t="s">
         <v>443</v>
       </c>
       <c r="E56" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -19593,16 +19611,16 @@
         <v>177.0</v>
       </c>
       <c r="B57" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D57" t="s">
         <v>444</v>
       </c>
       <c r="E57" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -19610,16 +19628,16 @@
         <v>177.0</v>
       </c>
       <c r="B58" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C58" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D58" t="s">
         <v>445</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
@@ -19831,10 +19849,10 @@
         <v>301.0</v>
       </c>
       <c r="B71" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D71" t="s">
         <v>458</v>
@@ -19848,10 +19866,10 @@
         <v>301.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C72" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D72" t="s">
         <v>459</v>
@@ -19967,10 +19985,10 @@
         <v>309.0</v>
       </c>
       <c r="B79" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D79" t="s">
         <v>466</v>
@@ -20035,10 +20053,10 @@
         <v>309.0</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D83" t="s">
         <v>470</v>
@@ -20156,7 +20174,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20217,10 +20235,10 @@
         <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F2" t="s">
         <v>491</v>
@@ -20349,10 +20367,10 @@
         <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>491</v>
@@ -20393,10 +20411,10 @@
         <v>497</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F6" t="s">
         <v>491</v>
@@ -20437,10 +20455,10 @@
         <v>498</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F7" t="s">
         <v>491</v>
@@ -21053,10 +21071,10 @@
         <v>523</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E21" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F21" t="s">
         <v>501</v>
@@ -21229,10 +21247,10 @@
         <v>528</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E25" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F25" t="s">
         <v>491</v>
@@ -21317,10 +21335,10 @@
         <v>530</v>
       </c>
       <c r="D27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F27" t="s">
         <v>491</v>
@@ -21405,10 +21423,10 @@
         <v>533</v>
       </c>
       <c r="D29" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E29" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="F29" t="s">
         <v>491</v>
@@ -21493,10 +21511,10 @@
         <v>536</v>
       </c>
       <c r="D31" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E31" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
         <v>491</v>
@@ -21977,10 +21995,10 @@
         <v>553</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E42" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F42" t="s">
         <v>501</v>
@@ -22197,10 +22215,10 @@
         <v>562</v>
       </c>
       <c r="D47" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E47" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F47" t="s">
         <v>501</v>
@@ -23033,10 +23051,10 @@
         <v>597</v>
       </c>
       <c r="D66" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E66" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F66" t="s">
         <v>501</v>
@@ -23957,10 +23975,10 @@
         <v>635</v>
       </c>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F87" t="s">
         <v>501</v>
@@ -24705,10 +24723,10 @@
         <v>668</v>
       </c>
       <c r="D104" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E104" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F104" t="s">
         <v>491</v>
@@ -27653,10 +27671,10 @@
         <v>791</v>
       </c>
       <c r="D171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E171" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F171" t="s">
         <v>501</v>
@@ -28225,10 +28243,10 @@
         <v>810</v>
       </c>
       <c r="D184" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E184" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F184" t="s">
         <v>491</v>
@@ -28266,7 +28284,7 @@
         <v>11.0</v>
       </c>
       <c r="C185" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D185" t="s">
         <v>811</v>
@@ -28709,10 +28727,10 @@
         <v>830</v>
       </c>
       <c r="D195" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E195" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F195" t="s">
         <v>491</v>
@@ -28841,10 +28859,10 @@
         <v>834</v>
       </c>
       <c r="D198" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E198" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F198" t="s">
         <v>491</v>
@@ -29061,10 +29079,10 @@
         <v>842</v>
       </c>
       <c r="D203" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E203" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F203" t="s">
         <v>491</v>
@@ -29105,10 +29123,10 @@
         <v>843</v>
       </c>
       <c r="D204" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E204" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F204" t="s">
         <v>501</v>
@@ -29765,10 +29783,10 @@
         <v>868</v>
       </c>
       <c r="D219" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E219" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F219" t="s">
         <v>491</v>
@@ -29809,10 +29827,10 @@
         <v>869</v>
       </c>
       <c r="D220" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E220" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
         <v>491</v>
@@ -29897,37 +29915,37 @@
         <v>871</v>
       </c>
       <c r="D222" t="s">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="E222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F222" t="s">
         <v>501</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I222" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K222" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M222" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="223">
@@ -29941,10 +29959,10 @@
         <v>872</v>
       </c>
       <c r="D223" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E223" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
         <v>491</v>
@@ -30029,19 +30047,19 @@
         <v>875</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>876</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>876</v>
       </c>
       <c r="F225" t="s">
         <v>491</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I225" t="n">
         <v>0.0</v>
@@ -30050,16 +30068,60 @@
         <v>0.0</v>
       </c>
       <c r="K225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="M225" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>877</v>
+      </c>
+      <c r="D226" t="s">
+        <v>878</v>
+      </c>
+      <c r="E226" t="s">
+        <v>878</v>
+      </c>
+      <c r="F226" t="s">
+        <v>501</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -30069,7 +30131,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B293"/>
+  <dimension ref="A1:B294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30080,7 +30142,7 @@
         <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2">
@@ -32417,6 +32479,14 @@
       </c>
       <c r="B293" t="n">
         <v>1450.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1452.0</v>
       </c>
     </row>
   </sheetData>
@@ -32426,7 +32496,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32434,7 +32504,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B1" t="s">
         <v>385</v>
@@ -32443,19 +32513,19 @@
         <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="F1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="G1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="H1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="2">
@@ -32472,7 +32542,7 @@
         <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F2" t="n">
         <v>1295.0</v>
@@ -32498,7 +32568,7 @@
         <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F3" t="n">
         <v>1297.0</v>
@@ -32521,7 +32591,7 @@
         <v>11.0</v>
       </c>
       <c r="D4" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E4" t="s">
         <v>493</v>
@@ -32599,10 +32669,10 @@
         <v>11.0</v>
       </c>
       <c r="D7" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F7" t="n">
         <v>1329.0</v>
@@ -32628,7 +32698,7 @@
         <v>497</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F8" t="n">
         <v>1332.0</v>
@@ -32654,7 +32724,7 @@
         <v>498</v>
       </c>
       <c r="E9" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="F9" t="n">
         <v>1364.0</v>
@@ -32677,10 +32747,10 @@
         <v>11.0</v>
       </c>
       <c r="D10" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F10" t="n">
         <v>1366.0</v>
@@ -32755,7 +32825,7 @@
         <v>11.0</v>
       </c>
       <c r="D13" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -32781,7 +32851,7 @@
         <v>11.0</v>
       </c>
       <c r="D14" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E14" t="s">
         <v>503</v>
@@ -32807,7 +32877,7 @@
         <v>11.0</v>
       </c>
       <c r="D15" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -32888,7 +32958,7 @@
         <v>508</v>
       </c>
       <c r="E18" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F18" t="n">
         <v>1472.0</v>
@@ -32911,7 +32981,7 @@
         <v>12.0</v>
       </c>
       <c r="D19" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E19" t="s">
         <v>509</v>
@@ -33015,7 +33085,7 @@
         <v>11.0</v>
       </c>
       <c r="D23" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E23" t="s">
         <v>515</v>
@@ -33067,7 +33137,7 @@
         <v>10.0</v>
       </c>
       <c r="D25" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -33119,7 +33189,7 @@
         <v>10.0</v>
       </c>
       <c r="D27" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -33171,7 +33241,7 @@
         <v>12.0</v>
       </c>
       <c r="D29" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -33197,7 +33267,7 @@
         <v>10.0</v>
       </c>
       <c r="D30" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -33223,7 +33293,7 @@
         <v>10.0</v>
       </c>
       <c r="D31" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E31" t="s">
         <v>25</v>
@@ -33249,7 +33319,7 @@
         <v>10.0</v>
       </c>
       <c r="D32" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E32" t="s">
         <v>25</v>
@@ -33275,7 +33345,7 @@
         <v>10.0</v>
       </c>
       <c r="D33" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -33301,7 +33371,7 @@
         <v>10.0</v>
       </c>
       <c r="D34" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -33327,7 +33397,7 @@
         <v>10.0</v>
       </c>
       <c r="D35" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -33353,7 +33423,7 @@
         <v>10.0</v>
       </c>
       <c r="D36" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -33379,7 +33449,7 @@
         <v>10.0</v>
       </c>
       <c r="D37" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E37" t="s">
         <v>398</v>
@@ -33431,7 +33501,7 @@
         <v>10.0</v>
       </c>
       <c r="D39" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
@@ -33457,7 +33527,7 @@
         <v>12.0</v>
       </c>
       <c r="D40" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E40" t="s">
         <v>519</v>
@@ -33509,7 +33579,7 @@
         <v>10.0</v>
       </c>
       <c r="D42" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E42" t="s">
         <v>393</v>
@@ -33538,7 +33608,7 @@
         <v>523</v>
       </c>
       <c r="E43" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F43" t="n">
         <v>1500.0</v>
@@ -33613,7 +33683,7 @@
         <v>10.0</v>
       </c>
       <c r="D46" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -33639,7 +33709,7 @@
         <v>10.0</v>
       </c>
       <c r="D47" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E47" t="s">
         <v>25</v>
@@ -33665,7 +33735,7 @@
         <v>10.0</v>
       </c>
       <c r="D48" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E48" t="s">
         <v>25</v>
@@ -33691,7 +33761,7 @@
         <v>10.0</v>
       </c>
       <c r="D49" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E49" t="s">
         <v>25</v>
@@ -33717,7 +33787,7 @@
         <v>10.0</v>
       </c>
       <c r="D50" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
@@ -33769,7 +33839,7 @@
         <v>11.0</v>
       </c>
       <c r="D52" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E52" t="s">
         <v>527</v>
@@ -33795,7 +33865,7 @@
         <v>10.0</v>
       </c>
       <c r="D53" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E53" t="s">
         <v>25</v>
@@ -33847,7 +33917,7 @@
         <v>11.0</v>
       </c>
       <c r="D55" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
@@ -33873,10 +33943,10 @@
         <v>11.0</v>
       </c>
       <c r="D56" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E56" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="F56" t="n">
         <v>1510.0</v>
@@ -33951,10 +34021,10 @@
         <v>14.0</v>
       </c>
       <c r="D59" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F59" t="n">
         <v>1515.0</v>
@@ -33977,7 +34047,7 @@
         <v>10.0</v>
       </c>
       <c r="D60" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
@@ -34003,7 +34073,7 @@
         <v>10.0</v>
       </c>
       <c r="D61" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -34058,7 +34128,7 @@
         <v>533</v>
       </c>
       <c r="E63" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="F63" t="n">
         <v>1520.0</v>
@@ -34084,7 +34154,7 @@
         <v>534</v>
       </c>
       <c r="E64" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="F64" t="n">
         <v>1522.0</v>
@@ -34107,7 +34177,7 @@
         <v>11.0</v>
       </c>
       <c r="D65" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E65" t="s">
         <v>535</v>
@@ -34136,7 +34206,7 @@
         <v>536</v>
       </c>
       <c r="E66" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F66" t="n">
         <v>1526.0</v>
@@ -34185,7 +34255,7 @@
         <v>11.0</v>
       </c>
       <c r="D68" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E68" t="s">
         <v>538</v>
@@ -34211,7 +34281,7 @@
         <v>10.0</v>
       </c>
       <c r="D69" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -34237,7 +34307,7 @@
         <v>10.0</v>
       </c>
       <c r="D70" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
@@ -34289,7 +34359,7 @@
         <v>10.0</v>
       </c>
       <c r="D72" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
@@ -34315,7 +34385,7 @@
         <v>10.0</v>
       </c>
       <c r="D73" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -34341,7 +34411,7 @@
         <v>10.0</v>
       </c>
       <c r="D74" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -34367,7 +34437,7 @@
         <v>10.0</v>
       </c>
       <c r="D75" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E75" t="s">
         <v>395</v>
@@ -34604,7 +34674,7 @@
         <v>553</v>
       </c>
       <c r="E84" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F84" t="n">
         <v>1555.0</v>
@@ -34653,7 +34723,7 @@
         <v>10.0</v>
       </c>
       <c r="D86" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E86" t="s">
         <v>555</v>
@@ -34734,7 +34804,7 @@
         <v>560</v>
       </c>
       <c r="E89" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F89" t="n">
         <v>1564.0</v>
@@ -34757,7 +34827,7 @@
         <v>10.0</v>
       </c>
       <c r="D90" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="E90" t="s">
         <v>561</v>
@@ -34861,7 +34931,7 @@
         <v>11.0</v>
       </c>
       <c r="D94" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E94" t="s">
         <v>566</v>
@@ -34887,10 +34957,10 @@
         <v>10.0</v>
       </c>
       <c r="D95" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F95" t="n">
         <v>1574.0</v>
@@ -34968,7 +35038,7 @@
         <v>571</v>
       </c>
       <c r="E98" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F98" t="n">
         <v>1584.0</v>
@@ -34991,7 +35061,7 @@
         <v>10.0</v>
       </c>
       <c r="D99" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E99" t="s">
         <v>391</v>
@@ -35358,7 +35428,7 @@
         <v>597</v>
       </c>
       <c r="E113" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F113" t="n">
         <v>1618.0</v>
@@ -35485,10 +35555,10 @@
         <v>10.0</v>
       </c>
       <c r="D118" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E118" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F118" t="n">
         <v>1626.0</v>
@@ -35511,7 +35581,7 @@
         <v>10.0</v>
       </c>
       <c r="D119" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E119" t="s">
         <v>25</v>
@@ -35537,7 +35607,7 @@
         <v>10.0</v>
       </c>
       <c r="D120" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E120" t="s">
         <v>604</v>
@@ -35644,7 +35714,7 @@
         <v>610</v>
       </c>
       <c r="E124" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F124" t="n">
         <v>1637.0</v>
@@ -35667,7 +35737,7 @@
         <v>11.0</v>
       </c>
       <c r="D125" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E125" t="s">
         <v>611</v>
@@ -36008,7 +36078,7 @@
         <v>635</v>
       </c>
       <c r="E138" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F138" t="n">
         <v>1667.0</v>
@@ -36138,7 +36208,7 @@
         <v>644</v>
       </c>
       <c r="E143" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F143" t="n">
         <v>1693.0</v>
@@ -36161,7 +36231,7 @@
         <v>11.0</v>
       </c>
       <c r="D144" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E144" t="s">
         <v>25</v>
@@ -36187,7 +36257,7 @@
         <v>11.0</v>
       </c>
       <c r="D145" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E145" t="s">
         <v>645</v>
@@ -36320,7 +36390,7 @@
         <v>654</v>
       </c>
       <c r="E150" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F150" t="n">
         <v>1721.0</v>
@@ -36343,7 +36413,7 @@
         <v>10.0</v>
       </c>
       <c r="D151" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E151" t="s">
         <v>655</v>
@@ -36424,7 +36494,7 @@
         <v>660</v>
       </c>
       <c r="E154" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F154" t="n">
         <v>1740.0</v>
@@ -36447,7 +36517,7 @@
         <v>10.0</v>
       </c>
       <c r="D155" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E155" t="s">
         <v>25</v>
@@ -36473,7 +36543,7 @@
         <v>10.0</v>
       </c>
       <c r="D156" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E156" t="s">
         <v>25</v>
@@ -36499,7 +36569,7 @@
         <v>10.0</v>
       </c>
       <c r="D157" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E157" t="s">
         <v>661</v>
@@ -36606,7 +36676,7 @@
         <v>668</v>
       </c>
       <c r="E161" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F161" t="n">
         <v>1753.0</v>
@@ -36629,10 +36699,10 @@
         <v>10.0</v>
       </c>
       <c r="D162" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E162" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F162" t="n">
         <v>1755.0</v>
@@ -36840,7 +36910,7 @@
         <v>682</v>
       </c>
       <c r="E170" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F170" t="n">
         <v>1773.0</v>
@@ -36863,7 +36933,7 @@
         <v>11.0</v>
       </c>
       <c r="D171" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E171" t="s">
         <v>683</v>
@@ -36996,7 +37066,7 @@
         <v>692</v>
       </c>
       <c r="E176" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="F176" t="n">
         <v>1785.0</v>
@@ -37019,7 +37089,7 @@
         <v>10.0</v>
       </c>
       <c r="D177" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E177" t="s">
         <v>25</v>
@@ -37045,7 +37115,7 @@
         <v>10.0</v>
       </c>
       <c r="D178" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E178" t="s">
         <v>693</v>
@@ -37825,7 +37895,7 @@
         <v>304.0</v>
       </c>
       <c r="D208" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="E208" t="s">
         <v>749</v>
@@ -38478,7 +38548,7 @@
         <v>791</v>
       </c>
       <c r="E233" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F233" t="n">
         <v>1911.0</v>
@@ -38504,7 +38574,7 @@
         <v>792</v>
       </c>
       <c r="E234" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="F234" t="n">
         <v>1913.0</v>
@@ -38527,7 +38597,7 @@
         <v>10.0</v>
       </c>
       <c r="D235" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E235" t="s">
         <v>793</v>
@@ -38764,7 +38834,7 @@
         <v>806</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F244" t="n">
         <v>1937.0</v>
@@ -38787,7 +38857,7 @@
         <v>177.0</v>
       </c>
       <c r="D245" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E245" t="s">
         <v>807</v>
@@ -38868,7 +38938,7 @@
         <v>810</v>
       </c>
       <c r="E248" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F248" t="n">
         <v>1945.0</v>
@@ -38891,7 +38961,7 @@
         <v>11.0</v>
       </c>
       <c r="D249" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E249" t="s">
         <v>811</v>
@@ -39076,7 +39146,7 @@
         <v>824</v>
       </c>
       <c r="E256" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="F256" t="n">
         <v>1962.0</v>
@@ -39099,7 +39169,7 @@
         <v>11.0</v>
       </c>
       <c r="D257" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E257" t="s">
         <v>825</v>
@@ -39180,7 +39250,7 @@
         <v>830</v>
       </c>
       <c r="E260" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F260" t="n">
         <v>1972.0</v>
@@ -39258,7 +39328,7 @@
         <v>834</v>
       </c>
       <c r="E263" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F263" t="n">
         <v>1984.0</v>
@@ -39388,7 +39458,7 @@
         <v>842</v>
       </c>
       <c r="E268" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F268" t="n">
         <v>1994.0</v>
@@ -39414,7 +39484,7 @@
         <v>843</v>
       </c>
       <c r="E269" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F269" t="n">
         <v>1996.0</v>
@@ -39567,7 +39637,7 @@
         <v>309.0</v>
       </c>
       <c r="D275" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E275" t="s">
         <v>25</v>
@@ -39593,7 +39663,7 @@
         <v>309.0</v>
       </c>
       <c r="D276" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E276" t="s">
         <v>25</v>
@@ -39700,7 +39770,7 @@
         <v>859</v>
       </c>
       <c r="E280" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="F280" t="n">
         <v>2015.0</v>
@@ -39723,7 +39793,7 @@
         <v>11.0</v>
       </c>
       <c r="D281" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E281" t="s">
         <v>860</v>
@@ -39882,7 +39952,7 @@
         <v>868</v>
       </c>
       <c r="E287" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F287" t="n">
         <v>2028.0</v>
@@ -39908,7 +39978,7 @@
         <v>869</v>
       </c>
       <c r="E288" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F288" t="n">
         <v>2031.0</v>
@@ -39960,7 +40030,7 @@
         <v>871</v>
       </c>
       <c r="E290" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F290" t="n">
         <v>2034.0</v>
@@ -39986,7 +40056,7 @@
         <v>872</v>
       </c>
       <c r="E291" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F291" t="n">
         <v>2036.0</v>
@@ -40038,15 +40108,41 @@
         <v>875</v>
       </c>
       <c r="E293" t="s">
-        <v>25</v>
+        <v>876</v>
       </c>
       <c r="F293" t="n">
         <v>2040.0</v>
       </c>
       <c r="G293" t="n">
-        <v>0.0</v>
+        <v>2041.0</v>
       </c>
       <c r="H293" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1452.0</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="D294" t="s">
+        <v>877</v>
+      </c>
+      <c r="E294" t="s">
+        <v>878</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2043.0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2044.0</v>
+      </c>
+      <c r="H294" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -40057,7 +40153,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40065,28 +40161,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B1" t="s">
         <v>378</v>
       </c>
       <c r="C1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="E1" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F1" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="G1" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="H1" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="I1" t="s">
         <v>385</v>
@@ -40103,7 +40199,7 @@
         <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E2" t="n">
         <v>9.0</v>
@@ -40129,10 +40225,10 @@
         <v>11.0</v>
       </c>
       <c r="C3" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E3" t="n">
         <v>6.0</v>
@@ -40161,7 +40257,7 @@
         <v>492</v>
       </c>
       <c r="D4" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E4" t="n">
         <v>6.0</v>
@@ -40187,10 +40283,10 @@
         <v>11.0</v>
       </c>
       <c r="C5" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
@@ -40216,10 +40312,10 @@
         <v>11.0</v>
       </c>
       <c r="C6" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D6" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E6" t="n">
         <v>5.0</v>
@@ -40245,7 +40341,7 @@
         <v>11.0</v>
       </c>
       <c r="C7" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D7" t="s">
         <v>493</v>
@@ -40277,7 +40373,7 @@
         <v>494</v>
       </c>
       <c r="D8" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
@@ -40303,7 +40399,7 @@
         <v>11.0</v>
       </c>
       <c r="C9" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D9" t="s">
         <v>495</v>
@@ -40335,7 +40431,7 @@
         <v>496</v>
       </c>
       <c r="D10" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E10" t="n">
         <v>8.0</v>
@@ -40361,7 +40457,7 @@
         <v>11.0</v>
       </c>
       <c r="C11" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D11" t="s">
         <v>416</v>
@@ -40390,10 +40486,10 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D12" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E12" t="n">
         <v>6.0</v>
@@ -40419,10 +40515,10 @@
         <v>11.0</v>
       </c>
       <c r="C13" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E13" t="n">
         <v>2.0</v>
@@ -40451,7 +40547,7 @@
         <v>497</v>
       </c>
       <c r="D14" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E14" t="n">
         <v>5.0</v>
@@ -40477,10 +40573,10 @@
         <v>11.0</v>
       </c>
       <c r="C15" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -40509,7 +40605,7 @@
         <v>498</v>
       </c>
       <c r="D16" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E16" t="n">
         <v>6.0</v>
@@ -40535,10 +40631,10 @@
         <v>11.0</v>
       </c>
       <c r="C17" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E17" t="n">
         <v>3.0</v>
@@ -40564,10 +40660,10 @@
         <v>11.0</v>
       </c>
       <c r="C18" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D18" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E18" t="n">
         <v>3.0</v>
@@ -40593,10 +40689,10 @@
         <v>11.0</v>
       </c>
       <c r="C19" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D19" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E19" t="n">
         <v>2.0</v>
@@ -40625,7 +40721,7 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E20" t="n">
         <v>7.0</v>
@@ -40651,7 +40747,7 @@
         <v>11.0</v>
       </c>
       <c r="C21" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D21" t="s">
         <v>500</v>
@@ -40683,7 +40779,7 @@
         <v>502</v>
       </c>
       <c r="D22" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E22" t="n">
         <v>5.0</v>
@@ -40709,10 +40805,10 @@
         <v>11.0</v>
       </c>
       <c r="C23" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="D23" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E23" t="n">
         <v>6.0</v>
@@ -40738,10 +40834,10 @@
         <v>11.0</v>
       </c>
       <c r="C24" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D24" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E24" t="n">
         <v>5.0</v>
@@ -40767,10 +40863,10 @@
         <v>11.0</v>
       </c>
       <c r="C25" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D25" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E25" t="n">
         <v>8.0</v>
@@ -40796,7 +40892,7 @@
         <v>11.0</v>
       </c>
       <c r="C26" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D26" t="s">
         <v>503</v>
@@ -40828,7 +40924,7 @@
         <v>504</v>
       </c>
       <c r="D27" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E27" t="n">
         <v>6.0</v>
@@ -40854,7 +40950,7 @@
         <v>11.0</v>
       </c>
       <c r="C28" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D28" t="s">
         <v>505</v>
@@ -40886,7 +40982,7 @@
         <v>506</v>
       </c>
       <c r="D29" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E29" t="n">
         <v>8.0</v>
@@ -40912,7 +41008,7 @@
         <v>12.0</v>
       </c>
       <c r="C30" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="D30" t="s">
         <v>507</v>
@@ -40944,7 +41040,7 @@
         <v>508</v>
       </c>
       <c r="D31" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E31" t="n">
         <v>4.0</v>
@@ -40970,10 +41066,10 @@
         <v>12.0</v>
       </c>
       <c r="C32" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="D32" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E32" t="n">
         <v>4.0</v>
@@ -40999,10 +41095,10 @@
         <v>12.0</v>
       </c>
       <c r="C33" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="D33" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E33" t="n">
         <v>4.0</v>
@@ -41028,7 +41124,7 @@
         <v>12.0</v>
       </c>
       <c r="C34" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D34" t="s">
         <v>509</v>
@@ -41060,7 +41156,7 @@
         <v>510</v>
       </c>
       <c r="D35" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E35" t="n">
         <v>4.0</v>
@@ -41086,7 +41182,7 @@
         <v>12.0</v>
       </c>
       <c r="C36" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="D36" t="s">
         <v>511</v>
@@ -41118,7 +41214,7 @@
         <v>512</v>
       </c>
       <c r="D37" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E37" t="n">
         <v>4.0</v>
@@ -41144,7 +41240,7 @@
         <v>12.0</v>
       </c>
       <c r="C38" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D38" t="s">
         <v>513</v>
@@ -41176,7 +41272,7 @@
         <v>514</v>
       </c>
       <c r="D39" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E39" t="n">
         <v>6.0</v>
@@ -41202,10 +41298,10 @@
         <v>11.0</v>
       </c>
       <c r="C40" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D40" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E40" t="n">
         <v>6.0</v>
@@ -41231,7 +41327,7 @@
         <v>11.0</v>
       </c>
       <c r="C41" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D41" t="s">
         <v>515</v>
@@ -41260,10 +41356,10 @@
         <v>10.0</v>
       </c>
       <c r="C42" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D42" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E42" t="n">
         <v>1.0</v>
@@ -41292,7 +41388,7 @@
         <v>517</v>
       </c>
       <c r="D43" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E43" t="n">
         <v>8.0</v>
@@ -41318,7 +41414,7 @@
         <v>11.0</v>
       </c>
       <c r="C44" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D44" t="s">
         <v>415</v>
@@ -41347,10 +41443,10 @@
         <v>10.0</v>
       </c>
       <c r="C45" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D45" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E45" t="n">
         <v>1.0</v>
@@ -41376,10 +41472,10 @@
         <v>10.0</v>
       </c>
       <c r="C46" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D46" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E46" t="n">
         <v>0.0</v>
@@ -41405,10 +41501,10 @@
         <v>10.0</v>
       </c>
       <c r="C47" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D47" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E47" t="n">
         <v>6.0</v>
@@ -41434,10 +41530,10 @@
         <v>10.0</v>
       </c>
       <c r="C48" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D48" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E48" t="n">
         <v>7.0</v>
@@ -41463,10 +41559,10 @@
         <v>10.0</v>
       </c>
       <c r="C49" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D49" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E49" t="n">
         <v>8.0</v>
@@ -41492,7 +41588,7 @@
         <v>10.0</v>
       </c>
       <c r="C50" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D50" t="s">
         <v>398</v>
@@ -41524,7 +41620,7 @@
         <v>520</v>
       </c>
       <c r="D51" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E51" t="n">
         <v>6.0</v>
@@ -41550,10 +41646,10 @@
         <v>10.0</v>
       </c>
       <c r="C52" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D52" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E52" t="n">
         <v>7.0</v>
@@ -41579,10 +41675,10 @@
         <v>12.0</v>
       </c>
       <c r="C53" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D53" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E53" t="n">
         <v>5.0</v>
@@ -41608,7 +41704,7 @@
         <v>12.0</v>
       </c>
       <c r="C54" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D54" t="s">
         <v>519</v>
@@ -41640,7 +41736,7 @@
         <v>521</v>
       </c>
       <c r="D55" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E55" t="n">
         <v>3.0</v>
@@ -41666,7 +41762,7 @@
         <v>12.0</v>
       </c>
       <c r="C56" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D56" t="s">
         <v>522</v>
@@ -41695,10 +41791,10 @@
         <v>10.0</v>
       </c>
       <c r="C57" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D57" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E57" t="n">
         <v>8.0</v>
@@ -41724,7 +41820,7 @@
         <v>10.0</v>
       </c>
       <c r="C58" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D58" t="s">
         <v>393</v>
@@ -41756,7 +41852,7 @@
         <v>523</v>
       </c>
       <c r="D59" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E59" t="n">
         <v>7.0</v>
@@ -41782,10 +41878,10 @@
         <v>11.0</v>
       </c>
       <c r="C60" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D60" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E60" t="n">
         <v>5.0</v>
@@ -41814,7 +41910,7 @@
         <v>524</v>
       </c>
       <c r="D61" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E61" t="n">
         <v>8.0</v>
@@ -41840,10 +41936,10 @@
         <v>10.0</v>
       </c>
       <c r="C62" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D62" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E62" t="n">
         <v>1.0</v>
@@ -41869,10 +41965,10 @@
         <v>10.0</v>
       </c>
       <c r="C63" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="D63" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E63" t="n">
         <v>3.0</v>
@@ -41901,7 +41997,7 @@
         <v>526</v>
       </c>
       <c r="D64" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E64" t="n">
         <v>3.0</v>
@@ -41927,10 +42023,10 @@
         <v>11.0</v>
       </c>
       <c r="C65" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D65" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E65" t="n">
         <v>7.0</v>
@@ -41956,7 +42052,7 @@
         <v>11.0</v>
       </c>
       <c r="C66" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D66" t="s">
         <v>527</v>
@@ -41985,10 +42081,10 @@
         <v>10.0</v>
       </c>
       <c r="C67" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="D67" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E67" t="n">
         <v>5.0</v>
@@ -42017,7 +42113,7 @@
         <v>528</v>
       </c>
       <c r="D68" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E68" t="n">
         <v>5.0</v>
@@ -42043,10 +42139,10 @@
         <v>11.0</v>
       </c>
       <c r="C69" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D69" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E69" t="n">
         <v>5.0</v>
@@ -42072,10 +42168,10 @@
         <v>11.0</v>
       </c>
       <c r="C70" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D70" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="E70" t="n">
         <v>4.0</v>
@@ -42104,7 +42200,7 @@
         <v>529</v>
       </c>
       <c r="D71" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E71" t="n">
         <v>6.0</v>
@@ -42130,7 +42226,7 @@
         <v>11.0</v>
       </c>
       <c r="C72" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="D72" t="s">
         <v>414</v>
@@ -42162,7 +42258,7 @@
         <v>530</v>
       </c>
       <c r="D73" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
@@ -42188,10 +42284,10 @@
         <v>14.0</v>
       </c>
       <c r="C74" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D74" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E74" t="n">
         <v>3.0</v>
@@ -42217,10 +42313,10 @@
         <v>14.0</v>
       </c>
       <c r="C75" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D75" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E75" t="n">
         <v>4.0</v>
@@ -42246,10 +42342,10 @@
         <v>10.0</v>
       </c>
       <c r="C76" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D76" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E76" t="n">
         <v>3.0</v>
@@ -42278,7 +42374,7 @@
         <v>531</v>
       </c>
       <c r="D77" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E77" t="n">
         <v>5.0</v>
@@ -42304,7 +42400,7 @@
         <v>11.0</v>
       </c>
       <c r="C78" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D78" t="s">
         <v>532</v>
@@ -42336,7 +42432,7 @@
         <v>533</v>
       </c>
       <c r="D79" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E79" t="n">
         <v>5.0</v>
@@ -42362,10 +42458,10 @@
         <v>11.0</v>
       </c>
       <c r="C80" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D80" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="E80" t="n">
         <v>6.0</v>
@@ -42394,7 +42490,7 @@
         <v>534</v>
       </c>
       <c r="D81" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E81" t="n">
         <v>6.0</v>
@@ -42420,10 +42516,10 @@
         <v>11.0</v>
       </c>
       <c r="C82" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D82" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
         <v>4.0</v>
@@ -42449,10 +42545,10 @@
         <v>11.0</v>
       </c>
       <c r="C83" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="D83" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E83" t="n">
         <v>5.0</v>
@@ -42478,7 +42574,7 @@
         <v>11.0</v>
       </c>
       <c r="C84" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D84" t="s">
         <v>535</v>
@@ -42510,7 +42606,7 @@
         <v>536</v>
       </c>
       <c r="D85" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E85" t="n">
         <v>5.0</v>
@@ -42536,10 +42632,10 @@
         <v>11.0</v>
       </c>
       <c r="C86" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E86" t="n">
         <v>4.0</v>
@@ -42568,7 +42664,7 @@
         <v>537</v>
       </c>
       <c r="D87" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E87" t="n">
         <v>7.0</v>
@@ -42594,10 +42690,10 @@
         <v>11.0</v>
       </c>
       <c r="C88" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="D88" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E88" t="n">
         <v>8.0</v>
@@ -42623,7 +42719,7 @@
         <v>11.0</v>
       </c>
       <c r="C89" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D89" t="s">
         <v>538</v>
@@ -42652,10 +42748,10 @@
         <v>10.0</v>
       </c>
       <c r="C90" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D90" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E90" t="n">
         <v>5.0</v>
@@ -42681,10 +42777,10 @@
         <v>10.0</v>
       </c>
       <c r="C91" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D91" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E91" t="n">
         <v>6.0</v>
@@ -42713,7 +42809,7 @@
         <v>539</v>
       </c>
       <c r="D92" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E92" t="n">
         <v>5.0</v>
@@ -42739,7 +42835,7 @@
         <v>11.0</v>
       </c>
       <c r="C93" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="D93" t="s">
         <v>382</v>
@@ -42768,10 +42864,10 @@
         <v>10.0</v>
       </c>
       <c r="C94" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D94" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E94" t="n">
         <v>10.0</v>
@@ -42797,10 +42893,10 @@
         <v>10.0</v>
       </c>
       <c r="C95" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D95" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E95" t="n">
         <v>5.0</v>
@@ -42826,10 +42922,10 @@
         <v>10.0</v>
       </c>
       <c r="C96" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D96" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E96" t="n">
         <v>4.0</v>
@@ -42855,7 +42951,7 @@
         <v>10.0</v>
       </c>
       <c r="C97" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D97" t="s">
         <v>395</v>
@@ -42887,7 +42983,7 @@
         <v>540</v>
       </c>
       <c r="D98" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E98" t="n">
         <v>4.0</v>
@@ -42913,7 +43009,7 @@
         <v>10.0</v>
       </c>
       <c r="C99" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D99" t="s">
         <v>541</v>
@@ -42945,7 +43041,7 @@
         <v>542</v>
       </c>
       <c r="D100" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E100" t="n">
         <v>6.0</v>
@@ -42971,7 +43067,7 @@
         <v>10.0</v>
       </c>
       <c r="C101" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D101" t="s">
         <v>396</v>
@@ -43003,7 +43099,7 @@
         <v>543</v>
       </c>
       <c r="D102" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E102" t="n">
         <v>5.0</v>
@@ -43029,7 +43125,7 @@
         <v>10.0</v>
       </c>
       <c r="C103" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D103" t="s">
         <v>390</v>
@@ -43061,7 +43157,7 @@
         <v>544</v>
       </c>
       <c r="D104" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E104" t="n">
         <v>6.0</v>
@@ -43087,7 +43183,7 @@
         <v>10.0</v>
       </c>
       <c r="C105" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D105" t="s">
         <v>545</v>
@@ -43119,7 +43215,7 @@
         <v>546</v>
       </c>
       <c r="D106" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E106" t="n">
         <v>3.0</v>
@@ -43145,7 +43241,7 @@
         <v>10.0</v>
       </c>
       <c r="C107" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D107" t="s">
         <v>547</v>
@@ -43177,7 +43273,7 @@
         <v>548</v>
       </c>
       <c r="D108" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E108" t="n">
         <v>6.0</v>
@@ -43203,7 +43299,7 @@
         <v>10.0</v>
       </c>
       <c r="C109" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D109" t="s">
         <v>394</v>
@@ -43235,7 +43331,7 @@
         <v>549</v>
       </c>
       <c r="D110" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E110" t="n">
         <v>6.0</v>
@@ -43261,7 +43357,7 @@
         <v>10.0</v>
       </c>
       <c r="C111" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D111" t="s">
         <v>550</v>
@@ -43293,7 +43389,7 @@
         <v>551</v>
       </c>
       <c r="D112" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E112" t="n">
         <v>6.0</v>
@@ -43319,7 +43415,7 @@
         <v>10.0</v>
       </c>
       <c r="C113" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D113" t="s">
         <v>552</v>
@@ -43351,7 +43447,7 @@
         <v>553</v>
       </c>
       <c r="D114" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E114" t="n">
         <v>4.0</v>
@@ -43377,10 +43473,10 @@
         <v>11.0</v>
       </c>
       <c r="C115" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="D115" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E115" t="n">
         <v>5.0</v>
@@ -43409,7 +43505,7 @@
         <v>554</v>
       </c>
       <c r="D116" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E116" t="n">
         <v>5.0</v>
@@ -43435,10 +43531,10 @@
         <v>10.0</v>
       </c>
       <c r="C117" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D117" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E117" t="n">
         <v>5.0</v>
@@ -43464,7 +43560,7 @@
         <v>10.0</v>
       </c>
       <c r="C118" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D118" t="s">
         <v>555</v>
@@ -43496,7 +43592,7 @@
         <v>556</v>
       </c>
       <c r="D119" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E119" t="n">
         <v>3.0</v>
@@ -43522,7 +43618,7 @@
         <v>10.0</v>
       </c>
       <c r="C120" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="D120" t="s">
         <v>557</v>
@@ -43554,7 +43650,7 @@
         <v>558</v>
       </c>
       <c r="D121" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E121" t="n">
         <v>2.0</v>
@@ -43580,7 +43676,7 @@
         <v>10.0</v>
       </c>
       <c r="C122" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D122" t="s">
         <v>559</v>
@@ -43612,7 +43708,7 @@
         <v>560</v>
       </c>
       <c r="D123" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E123" t="n">
         <v>2.0</v>
@@ -43638,10 +43734,10 @@
         <v>10.0</v>
       </c>
       <c r="C124" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="D124" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
@@ -43667,10 +43763,10 @@
         <v>10.0</v>
       </c>
       <c r="C125" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="D125" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E125" t="n">
         <v>10.0</v>
@@ -43696,7 +43792,7 @@
         <v>10.0</v>
       </c>
       <c r="C126" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="D126" t="s">
         <v>561</v>
@@ -43728,7 +43824,7 @@
         <v>562</v>
       </c>
       <c r="D127" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E127" t="n">
         <v>4.0</v>
@@ -43757,7 +43853,7 @@
         <v>563</v>
       </c>
       <c r="D128" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E128" t="n">
         <v>6.0</v>
@@ -43783,7 +43879,7 @@
         <v>11.0</v>
       </c>
       <c r="C129" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D129" t="s">
         <v>564</v>
@@ -43815,7 +43911,7 @@
         <v>565</v>
       </c>
       <c r="D130" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="E130" t="n">
         <v>6.0</v>
@@ -43841,10 +43937,10 @@
         <v>11.0</v>
       </c>
       <c r="C131" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="D131" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E131" t="n">
         <v>6.0</v>
@@ -43870,7 +43966,7 @@
         <v>11.0</v>
       </c>
       <c r="C132" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="D132" t="s">
         <v>566</v>
@@ -43899,10 +43995,10 @@
         <v>10.0</v>
       </c>
       <c r="C133" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D133" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E133" t="n">
         <v>5.0</v>
@@ -43928,10 +44024,10 @@
         <v>10.0</v>
       </c>
       <c r="C134" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="D134" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="E134" t="n">
         <v>3.0</v>
@@ -43960,7 +44056,7 @@
         <v>567</v>
       </c>
       <c r="D135" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E135" t="n">
         <v>10.0</v>
@@ -43986,7 +44082,7 @@
         <v>10.0</v>
       </c>
       <c r="C136" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="D136" t="s">
         <v>568</v>
@@ -44018,7 +44114,7 @@
         <v>569</v>
       </c>
       <c r="D137" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E137" t="n">
         <v>4.0</v>
@@ -44044,7 +44140,7 @@
         <v>10.0</v>
       </c>
       <c r="C138" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D138" t="s">
         <v>570</v>
@@ -44076,7 +44172,7 @@
         <v>571</v>
       </c>
       <c r="D139" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E139" t="n">
         <v>9.0</v>
@@ -44102,10 +44198,10 @@
         <v>10.0</v>
       </c>
       <c r="C140" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="D140" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E140" t="n">
         <v>4.0</v>
@@ -44131,10 +44227,10 @@
         <v>10.0</v>
       </c>
       <c r="C141" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D141" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E141" t="n">
         <v>8.0</v>
@@ -44160,7 +44256,7 @@
         <v>10.0</v>
       </c>
       <c r="C142" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D142" t="s">
         <v>391</v>
@@ -44192,7 +44288,7 @@
         <v>572</v>
       </c>
       <c r="D143" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E143" t="n">
         <v>3.0</v>
@@ -44218,7 +44314,7 @@
         <v>10.0</v>
       </c>
       <c r="C144" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="D144" t="s">
         <v>573</v>
@@ -44250,7 +44346,7 @@
         <v>574</v>
       </c>
       <c r="D145" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E145" t="n">
         <v>4.0</v>
@@ -44276,7 +44372,7 @@
         <v>10.0</v>
       </c>
       <c r="C146" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="D146" t="s">
         <v>575</v>
@@ -44308,7 +44404,7 @@
         <v>576</v>
       </c>
       <c r="D147" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E147" t="n">
         <v>9.0</v>
@@ -44334,7 +44430,7 @@
         <v>10.0</v>
       </c>
       <c r="C148" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D148" t="s">
         <v>577</v>
@@ -44366,7 +44462,7 @@
         <v>578</v>
       </c>
       <c r="D149" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="E149" t="n">
         <v>5.0</v>
@@ -44392,7 +44488,7 @@
         <v>10.0</v>
       </c>
       <c r="C150" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="D150" t="s">
         <v>400</v>
@@ -44424,7 +44520,7 @@
         <v>579</v>
       </c>
       <c r="D151" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="E151" t="n">
         <v>7.0</v>
@@ -44450,7 +44546,7 @@
         <v>10.0</v>
       </c>
       <c r="C152" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D152" t="s">
         <v>580</v>
@@ -44482,7 +44578,7 @@
         <v>581</v>
       </c>
       <c r="D153" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="E153" t="n">
         <v>5.0</v>
@@ -44508,7 +44604,7 @@
         <v>10.0</v>
       </c>
       <c r="C154" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D154" t="s">
         <v>582</v>
@@ -44540,7 +44636,7 @@
         <v>583</v>
       </c>
       <c r="D155" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="E155" t="n">
         <v>8.0</v>
@@ -44566,7 +44662,7 @@
         <v>10.0</v>
       </c>
       <c r="C156" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="D156" t="s">
         <v>584</v>
@@ -44598,7 +44694,7 @@
         <v>585</v>
       </c>
       <c r="D157" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="E157" t="n">
         <v>5.0</v>
@@ -44624,7 +44720,7 @@
         <v>10.0</v>
       </c>
       <c r="C158" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="D158" t="s">
         <v>586</v>
@@ -44656,7 +44752,7 @@
         <v>587</v>
       </c>
       <c r="D159" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="E159" t="n">
         <v>8.0</v>
@@ -44682,7 +44778,7 @@
         <v>10.0</v>
       </c>
       <c r="C160" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D160" t="s">
         <v>588</v>
@@ -44714,7 +44810,7 @@
         <v>589</v>
       </c>
       <c r="D161" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="E161" t="n">
         <v>7.0</v>
@@ -44740,7 +44836,7 @@
         <v>10.0</v>
       </c>
       <c r="C162" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="D162" t="s">
         <v>590</v>
@@ -44772,7 +44868,7 @@
         <v>591</v>
       </c>
       <c r="D163" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E163" t="n">
         <v>5.0</v>
@@ -44798,7 +44894,7 @@
         <v>11.0</v>
       </c>
       <c r="C164" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="D164" t="s">
         <v>592</v>
@@ -44830,7 +44926,7 @@
         <v>593</v>
       </c>
       <c r="D165" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E165" t="n">
         <v>4.0</v>
@@ -44856,7 +44952,7 @@
         <v>10.0</v>
       </c>
       <c r="C166" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D166" t="s">
         <v>594</v>
@@ -44888,7 +44984,7 @@
         <v>595</v>
       </c>
       <c r="D167" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="E167" t="n">
         <v>6.0</v>
@@ -44914,7 +45010,7 @@
         <v>10.0</v>
       </c>
       <c r="C168" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="D168" t="s">
         <v>596</v>
@@ -44946,7 +45042,7 @@
         <v>597</v>
       </c>
       <c r="D169" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E169" t="n">
         <v>8.0</v>
@@ -44972,10 +45068,10 @@
         <v>10.0</v>
       </c>
       <c r="C170" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D170" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E170" t="n">
         <v>1.0</v>
@@ -45004,7 +45100,7 @@
         <v>599</v>
       </c>
       <c r="D171" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="E171" t="n">
         <v>4.0</v>
@@ -45030,7 +45126,7 @@
         <v>10.0</v>
       </c>
       <c r="C172" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D172" t="s">
         <v>600</v>
@@ -45062,7 +45158,7 @@
         <v>601</v>
       </c>
       <c r="D173" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="E173" t="n">
         <v>7.0</v>
@@ -45088,7 +45184,7 @@
         <v>10.0</v>
       </c>
       <c r="C174" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D174" t="s">
         <v>602</v>
@@ -45120,7 +45216,7 @@
         <v>603</v>
       </c>
       <c r="D175" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E175" t="n">
         <v>7.0</v>
@@ -45146,7 +45242,7 @@
         <v>10.0</v>
       </c>
       <c r="C176" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="D176" t="s">
         <v>392</v>
@@ -45175,10 +45271,10 @@
         <v>10.0</v>
       </c>
       <c r="C177" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D177" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E177" t="n">
         <v>8.0</v>
@@ -45204,10 +45300,10 @@
         <v>10.0</v>
       </c>
       <c r="C178" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D178" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E178" t="n">
         <v>2.0</v>
@@ -45233,10 +45329,10 @@
         <v>10.0</v>
       </c>
       <c r="C179" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D179" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="E179" t="n">
         <v>8.0</v>
@@ -45262,10 +45358,10 @@
         <v>10.0</v>
       </c>
       <c r="C180" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="D180" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="E180" t="n">
         <v>6.0</v>
@@ -45291,7 +45387,7 @@
         <v>10.0</v>
       </c>
       <c r="C181" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="D181" t="s">
         <v>604</v>
@@ -45323,7 +45419,7 @@
         <v>605</v>
       </c>
       <c r="D182" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="E182" t="n">
         <v>5.0</v>
@@ -45349,7 +45445,7 @@
         <v>10.0</v>
       </c>
       <c r="C183" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="D183" t="s">
         <v>401</v>
@@ -45381,7 +45477,7 @@
         <v>606</v>
       </c>
       <c r="D184" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E184" t="n">
         <v>4.0</v>
@@ -45407,7 +45503,7 @@
         <v>10.0</v>
       </c>
       <c r="C185" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="D185" t="s">
         <v>607</v>
@@ -45439,7 +45535,7 @@
         <v>608</v>
       </c>
       <c r="D186" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="E186" t="n">
         <v>6.0</v>
@@ -45465,7 +45561,7 @@
         <v>10.0</v>
       </c>
       <c r="C187" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="D187" t="s">
         <v>609</v>
@@ -45497,7 +45593,7 @@
         <v>610</v>
       </c>
       <c r="D188" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="E188" t="n">
         <v>7.0</v>
@@ -45523,10 +45619,10 @@
         <v>11.0</v>
       </c>
       <c r="C189" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="D189" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E189" t="n">
         <v>6.0</v>
@@ -45552,10 +45648,10 @@
         <v>11.0</v>
       </c>
       <c r="C190" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D190" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E190" t="n">
         <v>5.0</v>
@@ -45581,7 +45677,7 @@
         <v>11.0</v>
       </c>
       <c r="C191" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="D191" t="s">
         <v>611</v>
@@ -45613,7 +45709,7 @@
         <v>612</v>
       </c>
       <c r="D192" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="E192" t="n">
         <v>6.0</v>
@@ -45639,7 +45735,7 @@
         <v>11.0</v>
       </c>
       <c r="C193" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D193" t="s">
         <v>613</v>
@@ -45671,7 +45767,7 @@
         <v>614</v>
       </c>
       <c r="D194" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="E194" t="n">
         <v>7.0</v>
@@ -45697,7 +45793,7 @@
         <v>10.0</v>
       </c>
       <c r="C195" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D195" t="s">
         <v>615</v>
@@ -45729,7 +45825,7 @@
         <v>616</v>
       </c>
       <c r="D196" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="E196" t="n">
         <v>5.0</v>
@@ -45755,7 +45851,7 @@
         <v>10.0</v>
       </c>
       <c r="C197" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="D197" t="s">
         <v>617</v>
@@ -45787,7 +45883,7 @@
         <v>618</v>
       </c>
       <c r="D198" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="E198" t="n">
         <v>4.0</v>
@@ -45813,7 +45909,7 @@
         <v>10.0</v>
       </c>
       <c r="C199" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D199" t="s">
         <v>619</v>
@@ -45845,7 +45941,7 @@
         <v>620</v>
       </c>
       <c r="D200" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="E200" t="n">
         <v>4.0</v>
@@ -45871,7 +45967,7 @@
         <v>10.0</v>
       </c>
       <c r="C201" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="D201" t="s">
         <v>397</v>
@@ -45903,7 +45999,7 @@
         <v>621</v>
       </c>
       <c r="D202" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E202" t="n">
         <v>5.0</v>
@@ -45929,7 +46025,7 @@
         <v>10.0</v>
       </c>
       <c r="C203" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="D203" t="s">
         <v>622</v>
@@ -45961,7 +46057,7 @@
         <v>623</v>
       </c>
       <c r="D204" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="E204" t="n">
         <v>7.0</v>
@@ -45987,7 +46083,7 @@
         <v>10.0</v>
       </c>
       <c r="C205" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D205" t="s">
         <v>624</v>
@@ -46019,7 +46115,7 @@
         <v>625</v>
       </c>
       <c r="D206" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="E206" t="n">
         <v>9.0</v>
@@ -46045,7 +46141,7 @@
         <v>10.0</v>
       </c>
       <c r="C207" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D207" t="s">
         <v>626</v>
@@ -46077,7 +46173,7 @@
         <v>627</v>
       </c>
       <c r="D208" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="E208" t="n">
         <v>4.0</v>
@@ -46103,7 +46199,7 @@
         <v>10.0</v>
       </c>
       <c r="C209" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="D209" t="s">
         <v>628</v>
@@ -46135,7 +46231,7 @@
         <v>629</v>
       </c>
       <c r="D210" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="E210" t="n">
         <v>8.0</v>
@@ -46161,7 +46257,7 @@
         <v>10.0</v>
       </c>
       <c r="C211" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="D211" t="s">
         <v>630</v>
@@ -46193,7 +46289,7 @@
         <v>631</v>
       </c>
       <c r="D212" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="E212" t="n">
         <v>3.0</v>
@@ -46219,7 +46315,7 @@
         <v>10.0</v>
       </c>
       <c r="C213" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D213" t="s">
         <v>632</v>
@@ -46251,7 +46347,7 @@
         <v>633</v>
       </c>
       <c r="D214" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="E214" t="n">
         <v>7.0</v>
@@ -46277,7 +46373,7 @@
         <v>10.0</v>
       </c>
       <c r="C215" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="D215" t="s">
         <v>634</v>
@@ -46309,7 +46405,7 @@
         <v>635</v>
       </c>
       <c r="D216" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="E216" t="n">
         <v>7.0</v>
@@ -46338,7 +46434,7 @@
         <v>636</v>
       </c>
       <c r="D217" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="E217" t="n">
         <v>8.0</v>
@@ -46364,10 +46460,10 @@
         <v>11.0</v>
       </c>
       <c r="C218" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D218" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E218" t="n">
         <v>5.0</v>
@@ -46393,7 +46489,7 @@
         <v>10.0</v>
       </c>
       <c r="C219" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D219" t="s">
         <v>637</v>
@@ -46425,7 +46521,7 @@
         <v>638</v>
       </c>
       <c r="D220" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E220" t="n">
         <v>7.0</v>
@@ -46451,7 +46547,7 @@
         <v>10.0</v>
       </c>
       <c r="C221" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D221" t="s">
         <v>639</v>
@@ -46483,7 +46579,7 @@
         <v>640</v>
       </c>
       <c r="D222" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="E222" t="n">
         <v>7.0</v>
@@ -46509,7 +46605,7 @@
         <v>11.0</v>
       </c>
       <c r="C223" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="D223" t="s">
         <v>641</v>
@@ -46541,7 +46637,7 @@
         <v>642</v>
       </c>
       <c r="D224" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="E224" t="n">
         <v>5.0</v>
@@ -46567,7 +46663,7 @@
         <v>11.0</v>
       </c>
       <c r="C225" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="D225" t="s">
         <v>643</v>
@@ -46599,7 +46695,7 @@
         <v>644</v>
       </c>
       <c r="D226" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="E226" t="n">
         <v>6.0</v>
@@ -46625,10 +46721,10 @@
         <v>11.0</v>
       </c>
       <c r="C227" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D227" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E227" t="n">
         <v>4.0</v>
@@ -46654,10 +46750,10 @@
         <v>11.0</v>
       </c>
       <c r="C228" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D228" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="E228" t="n">
         <v>4.0</v>
@@ -46683,10 +46779,10 @@
         <v>11.0</v>
       </c>
       <c r="C229" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D229" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="E229" t="n">
         <v>2.0</v>
@@ -46712,7 +46808,7 @@
         <v>11.0</v>
       </c>
       <c r="C230" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D230" t="s">
         <v>645</v>
@@ -46744,7 +46840,7 @@
         <v>646</v>
       </c>
       <c r="D231" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="E231" t="n">
         <v>4.0</v>
@@ -46770,7 +46866,7 @@
         <v>11.0</v>
       </c>
       <c r="C232" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D232" t="s">
         <v>647</v>
@@ -46802,7 +46898,7 @@
         <v>648</v>
       </c>
       <c r="D233" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E233" t="n">
         <v>4.0</v>
@@ -46828,7 +46924,7 @@
         <v>10.0</v>
       </c>
       <c r="C234" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="D234" t="s">
         <v>649</v>
@@ -46860,7 +46956,7 @@
         <v>650</v>
       </c>
       <c r="D235" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="E235" t="n">
         <v>3.0</v>
@@ -46886,7 +46982,7 @@
         <v>10.0</v>
       </c>
       <c r="C236" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="D236" t="s">
         <v>651</v>
@@ -46918,7 +47014,7 @@
         <v>652</v>
       </c>
       <c r="D237" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="E237" t="n">
         <v>4.0</v>
@@ -46944,7 +47040,7 @@
         <v>10.0</v>
       </c>
       <c r="C238" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="D238" t="s">
         <v>653</v>
@@ -46976,7 +47072,7 @@
         <v>654</v>
       </c>
       <c r="D239" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E239" t="n">
         <v>1.0</v>
@@ -47002,10 +47098,10 @@
         <v>10.0</v>
       </c>
       <c r="C240" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D240" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E240" t="n">
         <v>1.0</v>
@@ -47031,10 +47127,10 @@
         <v>10.0</v>
       </c>
       <c r="C241" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D241" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="E241" t="n">
         <v>2.0</v>
@@ -47060,7 +47156,7 @@
         <v>10.0</v>
       </c>
       <c r="C242" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D242" t="s">
         <v>655</v>
@@ -47092,7 +47188,7 @@
         <v>656</v>
       </c>
       <c r="D243" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="E243" t="n">
         <v>6.0</v>
@@ -47118,7 +47214,7 @@
         <v>10.0</v>
       </c>
       <c r="C244" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="D244" t="s">
         <v>657</v>
@@ -47150,7 +47246,7 @@
         <v>658</v>
       </c>
       <c r="D245" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="E245" t="n">
         <v>3.0</v>
@@ -47176,7 +47272,7 @@
         <v>10.0</v>
       </c>
       <c r="C246" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="D246" t="s">
         <v>659</v>
@@ -47208,7 +47304,7 @@
         <v>660</v>
       </c>
       <c r="D247" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="E247" t="n">
         <v>3.0</v>
@@ -47234,10 +47330,10 @@
         <v>10.0</v>
       </c>
       <c r="C248" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D248" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E248" t="n">
         <v>1.0</v>
@@ -47263,10 +47359,10 @@
         <v>10.0</v>
       </c>
       <c r="C249" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D249" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E249" t="n">
         <v>2.0</v>
@@ -47292,10 +47388,10 @@
         <v>10.0</v>
       </c>
       <c r="C250" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="D250" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E250" t="n">
         <v>3.0</v>
@@ -47321,7 +47417,7 @@
         <v>10.0</v>
       </c>
       <c r="C251" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="D251" t="s">
         <v>661</v>
@@ -47353,7 +47449,7 @@
         <v>662</v>
       </c>
       <c r="D252" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="E252" t="n">
         <v>6.0</v>
@@ -47379,7 +47475,7 @@
         <v>11.0</v>
       </c>
       <c r="C253" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="D253" t="s">
         <v>663</v>
@@ -47411,7 +47507,7 @@
         <v>664</v>
       </c>
       <c r="D254" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="E254" t="n">
         <v>4.0</v>
@@ -47437,7 +47533,7 @@
         <v>11.0</v>
       </c>
       <c r="C255" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D255" t="s">
         <v>665</v>
@@ -47469,7 +47565,7 @@
         <v>666</v>
       </c>
       <c r="D256" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="E256" t="n">
         <v>7.0</v>
@@ -47495,7 +47591,7 @@
         <v>10.0</v>
       </c>
       <c r="C257" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="D257" t="s">
         <v>667</v>
@@ -47527,7 +47623,7 @@
         <v>668</v>
       </c>
       <c r="D258" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="E258" t="n">
         <v>3.0</v>
@@ -47553,10 +47649,10 @@
         <v>10.0</v>
       </c>
       <c r="C259" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D259" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E259" t="n">
         <v>9.0</v>
@@ -47582,10 +47678,10 @@
         <v>10.0</v>
       </c>
       <c r="C260" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D260" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="E260" t="n">
         <v>6.0</v>
@@ -47611,10 +47707,10 @@
         <v>10.0</v>
       </c>
       <c r="C261" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="D261" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E261" t="n">
         <v>10.0</v>
@@ -47643,7 +47739,7 @@
         <v>669</v>
       </c>
       <c r="D262" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="E262" t="n">
         <v>3.0</v>
@@ -47669,7 +47765,7 @@
         <v>10.0</v>
       </c>
       <c r="C263" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="D263" t="s">
         <v>670</v>
@@ -47701,7 +47797,7 @@
         <v>671</v>
       </c>
       <c r="D264" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="E264" t="n">
         <v>4.0</v>
@@ -47727,7 +47823,7 @@
         <v>316.0</v>
       </c>
       <c r="C265" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D265" t="s">
         <v>475</v>
@@ -47759,7 +47855,7 @@
         <v>672</v>
       </c>
       <c r="D266" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="E266" t="n">
         <v>4.0</v>
@@ -47785,7 +47881,7 @@
         <v>316.0</v>
       </c>
       <c r="C267" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D267" t="s">
         <v>673</v>
@@ -47817,7 +47913,7 @@
         <v>674</v>
       </c>
       <c r="D268" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="E268" t="n">
         <v>3.0</v>
@@ -47843,7 +47939,7 @@
         <v>11.0</v>
       </c>
       <c r="C269" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="D269" t="s">
         <v>675</v>
@@ -47875,7 +47971,7 @@
         <v>676</v>
       </c>
       <c r="D270" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="E270" t="n">
         <v>2.0</v>
@@ -47901,7 +47997,7 @@
         <v>11.0</v>
       </c>
       <c r="C271" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D271" t="s">
         <v>677</v>
@@ -47933,7 +48029,7 @@
         <v>678</v>
       </c>
       <c r="D272" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E272" t="n">
         <v>4.0</v>
@@ -47959,7 +48055,7 @@
         <v>11.0</v>
       </c>
       <c r="C273" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D273" t="s">
         <v>679</v>
@@ -47991,7 +48087,7 @@
         <v>680</v>
       </c>
       <c r="D274" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E274" t="n">
         <v>2.0</v>
@@ -48017,7 +48113,7 @@
         <v>11.0</v>
       </c>
       <c r="C275" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D275" t="s">
         <v>681</v>
@@ -48049,7 +48145,7 @@
         <v>682</v>
       </c>
       <c r="D276" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="E276" t="n">
         <v>4.0</v>
@@ -48075,10 +48171,10 @@
         <v>11.0</v>
       </c>
       <c r="C277" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="D277" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E277" t="n">
         <v>4.0</v>
@@ -48104,10 +48200,10 @@
         <v>11.0</v>
       </c>
       <c r="C278" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="D278" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="E278" t="n">
         <v>5.0</v>
@@ -48133,7 +48229,7 @@
         <v>11.0</v>
       </c>
       <c r="C279" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="D279" t="s">
         <v>683</v>
@@ -48165,7 +48261,7 @@
         <v>684</v>
       </c>
       <c r="D280" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="E280" t="n">
         <v>5.0</v>
@@ -48191,7 +48287,7 @@
         <v>11.0</v>
       </c>
       <c r="C281" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D281" t="s">
         <v>685</v>
@@ -48223,7 +48319,7 @@
         <v>686</v>
       </c>
       <c r="D282" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E282" t="n">
         <v>5.0</v>
@@ -48249,7 +48345,7 @@
         <v>11.0</v>
       </c>
       <c r="C283" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="D283" t="s">
         <v>687</v>
@@ -48281,7 +48377,7 @@
         <v>688</v>
       </c>
       <c r="D284" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="E284" t="n">
         <v>5.0</v>
@@ -48307,7 +48403,7 @@
         <v>11.0</v>
       </c>
       <c r="C285" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="D285" t="s">
         <v>689</v>
@@ -48339,7 +48435,7 @@
         <v>690</v>
       </c>
       <c r="D286" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="E286" t="n">
         <v>3.0</v>
@@ -48365,7 +48461,7 @@
         <v>10.0</v>
       </c>
       <c r="C287" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D287" t="s">
         <v>691</v>
@@ -48397,7 +48493,7 @@
         <v>692</v>
       </c>
       <c r="D288" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="E288" t="n">
         <v>3.0</v>
@@ -48423,10 +48519,10 @@
         <v>10.0</v>
       </c>
       <c r="C289" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="D289" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E289" t="n">
         <v>8.0</v>
@@ -48452,10 +48548,10 @@
         <v>10.0</v>
       </c>
       <c r="C290" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D290" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="E290" t="n">
         <v>3.0</v>
@@ -48481,7 +48577,7 @@
         <v>10.0</v>
       </c>
       <c r="C291" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="D291" t="s">
         <v>693</v>
@@ -48513,7 +48609,7 @@
         <v>694</v>
       </c>
       <c r="D292" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="E292" t="n">
         <v>3.0</v>
@@ -48539,7 +48635,7 @@
         <v>10.0</v>
       </c>
       <c r="C293" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="D293" t="s">
         <v>695</v>
@@ -48571,7 +48667,7 @@
         <v>696</v>
       </c>
       <c r="D294" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="E294" t="n">
         <v>4.0</v>
@@ -48600,7 +48696,7 @@
         <v>697</v>
       </c>
       <c r="D295" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="E295" t="n">
         <v>3.0</v>
@@ -48626,7 +48722,7 @@
         <v>10.0</v>
       </c>
       <c r="C296" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D296" t="s">
         <v>698</v>
@@ -48658,7 +48754,7 @@
         <v>699</v>
       </c>
       <c r="D297" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="E297" t="n">
         <v>8.0</v>
@@ -48684,7 +48780,7 @@
         <v>10.0</v>
       </c>
       <c r="C298" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D298" t="s">
         <v>700</v>
@@ -48716,7 +48812,7 @@
         <v>701</v>
       </c>
       <c r="D299" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="E299" t="n">
         <v>3.0</v>
@@ -48742,7 +48838,7 @@
         <v>10.0</v>
       </c>
       <c r="C300" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="D300" t="s">
         <v>702</v>
@@ -48774,7 +48870,7 @@
         <v>703</v>
       </c>
       <c r="D301" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E301" t="n">
         <v>3.0</v>
@@ -48800,7 +48896,7 @@
         <v>10.0</v>
       </c>
       <c r="C302" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="D302" t="s">
         <v>704</v>
@@ -48832,7 +48928,7 @@
         <v>705</v>
       </c>
       <c r="D303" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E303" t="n">
         <v>3.0</v>
@@ -48858,7 +48954,7 @@
         <v>10.0</v>
       </c>
       <c r="C304" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D304" t="s">
         <v>706</v>
@@ -48890,7 +48986,7 @@
         <v>707</v>
       </c>
       <c r="D305" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="E305" t="n">
         <v>2.0</v>
@@ -48916,7 +49012,7 @@
         <v>10.0</v>
       </c>
       <c r="C306" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="D306" t="s">
         <v>708</v>
@@ -48948,7 +49044,7 @@
         <v>709</v>
       </c>
       <c r="D307" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="E307" t="n">
         <v>5.0</v>
@@ -48974,7 +49070,7 @@
         <v>10.0</v>
       </c>
       <c r="C308" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="D308" t="s">
         <v>710</v>
@@ -49006,7 +49102,7 @@
         <v>711</v>
       </c>
       <c r="D309" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="E309" t="n">
         <v>5.0</v>
@@ -49032,7 +49128,7 @@
         <v>10.0</v>
       </c>
       <c r="C310" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="D310" t="s">
         <v>712</v>
@@ -49064,7 +49160,7 @@
         <v>713</v>
       </c>
       <c r="D311" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E311" t="n">
         <v>3.0</v>
@@ -49090,7 +49186,7 @@
         <v>10.0</v>
       </c>
       <c r="C312" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="D312" t="s">
         <v>714</v>
@@ -49122,7 +49218,7 @@
         <v>715</v>
       </c>
       <c r="D313" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E313" t="n">
         <v>2.0</v>
@@ -49148,7 +49244,7 @@
         <v>10.0</v>
       </c>
       <c r="C314" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D314" t="s">
         <v>716</v>
@@ -49180,7 +49276,7 @@
         <v>717</v>
       </c>
       <c r="D315" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E315" t="n">
         <v>3.0</v>
@@ -49206,7 +49302,7 @@
         <v>10.0</v>
       </c>
       <c r="C316" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D316" t="s">
         <v>718</v>
@@ -49238,7 +49334,7 @@
         <v>719</v>
       </c>
       <c r="D317" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="E317" t="n">
         <v>1.0</v>
@@ -49264,7 +49360,7 @@
         <v>10.0</v>
       </c>
       <c r="C318" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="D318" t="s">
         <v>720</v>
@@ -49296,7 +49392,7 @@
         <v>721</v>
       </c>
       <c r="D319" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E319" t="n">
         <v>5.0</v>
@@ -49322,7 +49418,7 @@
         <v>10.0</v>
       </c>
       <c r="C320" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D320" t="s">
         <v>722</v>
@@ -49354,7 +49450,7 @@
         <v>723</v>
       </c>
       <c r="D321" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="E321" t="n">
         <v>5.0</v>
@@ -49380,7 +49476,7 @@
         <v>10.0</v>
       </c>
       <c r="C322" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D322" t="s">
         <v>724</v>
@@ -49412,7 +49508,7 @@
         <v>725</v>
       </c>
       <c r="D323" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="E323" t="n">
         <v>8.0</v>
@@ -49438,7 +49534,7 @@
         <v>10.0</v>
       </c>
       <c r="C324" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="D324" t="s">
         <v>726</v>
@@ -49470,7 +49566,7 @@
         <v>727</v>
       </c>
       <c r="D325" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="E325" t="n">
         <v>2.0</v>
@@ -49496,7 +49592,7 @@
         <v>10.0</v>
       </c>
       <c r="C326" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D326" t="s">
         <v>728</v>
@@ -49528,7 +49624,7 @@
         <v>729</v>
       </c>
       <c r="D327" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="E327" t="n">
         <v>7.0</v>
@@ -49554,7 +49650,7 @@
         <v>10.0</v>
       </c>
       <c r="C328" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="D328" t="s">
         <v>730</v>
@@ -49586,7 +49682,7 @@
         <v>731</v>
       </c>
       <c r="D329" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E329" t="n">
         <v>0.0</v>
@@ -49612,7 +49708,7 @@
         <v>10.0</v>
       </c>
       <c r="C330" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="D330" t="s">
         <v>732</v>
@@ -49644,7 +49740,7 @@
         <v>733</v>
       </c>
       <c r="D331" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="E331" t="n">
         <v>5.0</v>
@@ -49670,7 +49766,7 @@
         <v>10.0</v>
       </c>
       <c r="C332" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D332" t="s">
         <v>734</v>
@@ -49702,7 +49798,7 @@
         <v>735</v>
       </c>
       <c r="D333" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E333" t="n">
         <v>2.0</v>
@@ -49728,7 +49824,7 @@
         <v>10.0</v>
       </c>
       <c r="C334" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D334" t="s">
         <v>736</v>
@@ -49760,7 +49856,7 @@
         <v>737</v>
       </c>
       <c r="D335" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E335" t="n">
         <v>5.0</v>
@@ -49786,7 +49882,7 @@
         <v>304.0</v>
       </c>
       <c r="C336" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D336" t="s">
         <v>464</v>
@@ -49818,7 +49914,7 @@
         <v>738</v>
       </c>
       <c r="D337" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E337" t="n">
         <v>5.0</v>
@@ -49844,7 +49940,7 @@
         <v>10.0</v>
       </c>
       <c r="C338" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D338" t="s">
         <v>739</v>
@@ -49876,7 +49972,7 @@
         <v>740</v>
       </c>
       <c r="D339" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E339" t="n">
         <v>5.0</v>
@@ -49902,7 +49998,7 @@
         <v>10.0</v>
       </c>
       <c r="C340" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D340" t="s">
         <v>741</v>
@@ -49934,7 +50030,7 @@
         <v>742</v>
       </c>
       <c r="D341" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="E341" t="n">
         <v>5.0</v>
@@ -49960,7 +50056,7 @@
         <v>11.0</v>
       </c>
       <c r="C342" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="D342" t="s">
         <v>743</v>
@@ -49992,7 +50088,7 @@
         <v>744</v>
       </c>
       <c r="D343" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="E343" t="n">
         <v>1.0</v>
@@ -50018,7 +50114,7 @@
         <v>11.0</v>
       </c>
       <c r="C344" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D344" t="s">
         <v>745</v>
@@ -50050,7 +50146,7 @@
         <v>746</v>
       </c>
       <c r="D345" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E345" t="n">
         <v>1.0</v>
@@ -50076,7 +50172,7 @@
         <v>11.0</v>
       </c>
       <c r="C346" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D346" t="s">
         <v>747</v>
@@ -50108,7 +50204,7 @@
         <v>748</v>
       </c>
       <c r="D347" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E347" t="n">
         <v>5.0</v>
@@ -50134,7 +50230,7 @@
         <v>304.0</v>
       </c>
       <c r="C348" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D348" t="s">
         <v>465</v>
@@ -50163,10 +50259,10 @@
         <v>304.0</v>
       </c>
       <c r="C349" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D349" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E349" t="n">
         <v>6.0</v>
@@ -50192,7 +50288,7 @@
         <v>304.0</v>
       </c>
       <c r="C350" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D350" t="s">
         <v>749</v>
@@ -50224,7 +50320,7 @@
         <v>750</v>
       </c>
       <c r="D351" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E351" t="n">
         <v>5.0</v>
@@ -50250,7 +50346,7 @@
         <v>171.0</v>
       </c>
       <c r="C352" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D352" t="s">
         <v>434</v>
@@ -50282,7 +50378,7 @@
         <v>752</v>
       </c>
       <c r="D353" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E353" t="n">
         <v>5.0</v>
@@ -50308,7 +50404,7 @@
         <v>10.0</v>
       </c>
       <c r="C354" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="D354" t="s">
         <v>753</v>
@@ -50340,7 +50436,7 @@
         <v>754</v>
       </c>
       <c r="D355" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="E355" t="n">
         <v>5.0</v>
@@ -50366,7 +50462,7 @@
         <v>11.0</v>
       </c>
       <c r="C356" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D356" t="s">
         <v>755</v>
@@ -50398,7 +50494,7 @@
         <v>756</v>
       </c>
       <c r="D357" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E357" t="n">
         <v>2.0</v>
@@ -50424,7 +50520,7 @@
         <v>11.0</v>
       </c>
       <c r="C358" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D358" t="s">
         <v>757</v>
@@ -50456,7 +50552,7 @@
         <v>758</v>
       </c>
       <c r="D359" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="E359" t="n">
         <v>2.0</v>
@@ -50482,7 +50578,7 @@
         <v>11.0</v>
       </c>
       <c r="C360" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D360" t="s">
         <v>759</v>
@@ -50514,7 +50610,7 @@
         <v>760</v>
       </c>
       <c r="D361" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="E361" t="n">
         <v>4.0</v>
@@ -50540,7 +50636,7 @@
         <v>11.0</v>
       </c>
       <c r="C362" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D362" t="s">
         <v>761</v>
@@ -50572,7 +50668,7 @@
         <v>762</v>
       </c>
       <c r="D363" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="E363" t="n">
         <v>5.0</v>
@@ -50598,7 +50694,7 @@
         <v>11.0</v>
       </c>
       <c r="C364" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D364" t="s">
         <v>763</v>
@@ -50630,7 +50726,7 @@
         <v>764</v>
       </c>
       <c r="D365" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="E365" t="n">
         <v>4.0</v>
@@ -50656,7 +50752,7 @@
         <v>304.0</v>
       </c>
       <c r="C366" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D366" t="s">
         <v>765</v>
@@ -50688,7 +50784,7 @@
         <v>766</v>
       </c>
       <c r="D367" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="E367" t="n">
         <v>5.0</v>
@@ -50714,7 +50810,7 @@
         <v>309.0</v>
       </c>
       <c r="C368" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="D368" t="s">
         <v>469</v>
@@ -50746,7 +50842,7 @@
         <v>767</v>
       </c>
       <c r="D369" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="E369" t="n">
         <v>6.0</v>
@@ -50772,7 +50868,7 @@
         <v>10.0</v>
       </c>
       <c r="C370" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D370" t="s">
         <v>768</v>
@@ -50804,7 +50900,7 @@
         <v>769</v>
       </c>
       <c r="D371" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E371" t="n">
         <v>7.0</v>
@@ -50833,7 +50929,7 @@
         <v>770</v>
       </c>
       <c r="D372" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="E372" t="n">
         <v>7.0</v>
@@ -50859,7 +50955,7 @@
         <v>309.0</v>
       </c>
       <c r="C373" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D373" t="s">
         <v>467</v>
@@ -50891,7 +50987,7 @@
         <v>771</v>
       </c>
       <c r="D374" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="E374" t="n">
         <v>4.0</v>
@@ -50917,7 +51013,7 @@
         <v>10.0</v>
       </c>
       <c r="C375" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="D375" t="s">
         <v>772</v>
@@ -50949,7 +51045,7 @@
         <v>773</v>
       </c>
       <c r="D376" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="E376" t="n">
         <v>3.0</v>
@@ -50975,7 +51071,7 @@
         <v>10.0</v>
       </c>
       <c r="C377" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="D377" t="s">
         <v>774</v>
@@ -51007,7 +51103,7 @@
         <v>775</v>
       </c>
       <c r="D378" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="E378" t="n">
         <v>2.0</v>
@@ -51033,7 +51129,7 @@
         <v>10.0</v>
       </c>
       <c r="C379" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D379" t="s">
         <v>776</v>
@@ -51065,7 +51161,7 @@
         <v>777</v>
       </c>
       <c r="D380" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="E380" t="n">
         <v>7.0</v>
@@ -51091,7 +51187,7 @@
         <v>11.0</v>
       </c>
       <c r="C381" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="D381" t="s">
         <v>778</v>
@@ -51123,7 +51219,7 @@
         <v>779</v>
       </c>
       <c r="D382" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="E382" t="n">
         <v>5.0</v>
@@ -51149,7 +51245,7 @@
         <v>11.0</v>
       </c>
       <c r="C383" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="D383" t="s">
         <v>780</v>
@@ -51181,7 +51277,7 @@
         <v>781</v>
       </c>
       <c r="D384" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="E384" t="n">
         <v>7.0</v>
@@ -51207,7 +51303,7 @@
         <v>11.0</v>
       </c>
       <c r="C385" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="D385" t="s">
         <v>782</v>
@@ -51239,7 +51335,7 @@
         <v>783</v>
       </c>
       <c r="D386" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="E386" t="n">
         <v>5.0</v>
@@ -51265,7 +51361,7 @@
         <v>10.0</v>
       </c>
       <c r="C387" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="D387" t="s">
         <v>784</v>
@@ -51297,7 +51393,7 @@
         <v>785</v>
       </c>
       <c r="D388" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="E388" t="n">
         <v>5.0</v>
@@ -51323,7 +51419,7 @@
         <v>309.0</v>
       </c>
       <c r="C389" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D389" t="s">
         <v>468</v>
@@ -51355,7 +51451,7 @@
         <v>786</v>
       </c>
       <c r="D390" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="E390" t="n">
         <v>6.0</v>
@@ -51381,7 +51477,7 @@
         <v>11.0</v>
       </c>
       <c r="C391" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="D391" t="s">
         <v>787</v>
@@ -51413,7 +51509,7 @@
         <v>788</v>
       </c>
       <c r="D392" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="E392" t="n">
         <v>4.0</v>
@@ -51439,7 +51535,7 @@
         <v>10.0</v>
       </c>
       <c r="C393" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="D393" t="s">
         <v>789</v>
@@ -51471,7 +51567,7 @@
         <v>790</v>
       </c>
       <c r="D394" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="E394" t="n">
         <v>10.0</v>
@@ -51500,7 +51596,7 @@
         <v>791</v>
       </c>
       <c r="D395" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="E395" t="n">
         <v>7.0</v>
@@ -51526,10 +51622,10 @@
         <v>174.0</v>
       </c>
       <c r="C396" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="D396" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E396" t="n">
         <v>3.0</v>
@@ -51558,7 +51654,7 @@
         <v>792</v>
       </c>
       <c r="D397" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="E397" t="n">
         <v>7.0</v>
@@ -51584,10 +51680,10 @@
         <v>10.0</v>
       </c>
       <c r="C398" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D398" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E398" t="n">
         <v>3.0</v>
@@ -51613,10 +51709,10 @@
         <v>10.0</v>
       </c>
       <c r="C399" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="D399" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="E399" t="n">
         <v>7.0</v>
@@ -51642,7 +51738,7 @@
         <v>10.0</v>
       </c>
       <c r="C400" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="D400" t="s">
         <v>793</v>
@@ -51674,7 +51770,7 @@
         <v>794</v>
       </c>
       <c r="D401" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="E401" t="n">
         <v>3.0</v>
@@ -51700,7 +51796,7 @@
         <v>178.0</v>
       </c>
       <c r="C402" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="D402" t="s">
         <v>446</v>
@@ -51732,7 +51828,7 @@
         <v>795</v>
       </c>
       <c r="D403" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="E403" t="n">
         <v>8.0</v>
@@ -51758,7 +51854,7 @@
         <v>10.0</v>
       </c>
       <c r="C404" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D404" t="s">
         <v>796</v>
@@ -51790,7 +51886,7 @@
         <v>797</v>
       </c>
       <c r="D405" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="E405" t="n">
         <v>7.0</v>
@@ -51816,7 +51912,7 @@
         <v>10.0</v>
       </c>
       <c r="C406" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="D406" t="s">
         <v>798</v>
@@ -51848,7 +51944,7 @@
         <v>799</v>
       </c>
       <c r="D407" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="E407" t="n">
         <v>4.0</v>
@@ -51874,7 +51970,7 @@
         <v>178.0</v>
       </c>
       <c r="C408" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="D408" t="s">
         <v>447</v>
@@ -51906,7 +52002,7 @@
         <v>800</v>
       </c>
       <c r="D409" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E409" t="n">
         <v>8.0</v>
@@ -51932,7 +52028,7 @@
         <v>293.0</v>
       </c>
       <c r="C410" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="D410" t="s">
         <v>455</v>
@@ -51964,7 +52060,7 @@
         <v>801</v>
       </c>
       <c r="D411" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="E411" t="n">
         <v>4.0</v>
@@ -51990,7 +52086,7 @@
         <v>11.0</v>
       </c>
       <c r="C412" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="D412" t="s">
         <v>802</v>
@@ -52022,7 +52118,7 @@
         <v>803</v>
       </c>
       <c r="D413" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="E413" t="n">
         <v>4.0</v>
@@ -52048,7 +52144,7 @@
         <v>178.0</v>
       </c>
       <c r="C414" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="D414" t="s">
         <v>804</v>
@@ -52080,7 +52176,7 @@
         <v>805</v>
       </c>
       <c r="D415" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="E415" t="n">
         <v>5.0</v>
@@ -52106,7 +52202,7 @@
         <v>17.0</v>
       </c>
       <c r="C416" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="D416" t="s">
         <v>429</v>
@@ -52138,7 +52234,7 @@
         <v>806</v>
       </c>
       <c r="D417" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="E417" t="n">
         <v>6.0</v>
@@ -52164,10 +52260,10 @@
         <v>177.0</v>
       </c>
       <c r="C418" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D418" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="E418" t="n">
         <v>3.0</v>
@@ -52193,10 +52289,10 @@
         <v>177.0</v>
       </c>
       <c r="C419" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D419" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="E419" t="n">
         <v>4.0</v>
@@ -52222,7 +52318,7 @@
         <v>177.0</v>
       </c>
       <c r="C420" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="D420" t="s">
         <v>807</v>
@@ -52254,7 +52350,7 @@
         <v>808</v>
       </c>
       <c r="D421" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="E421" t="n">
         <v>2.0</v>
@@ -52280,7 +52376,7 @@
         <v>293.0</v>
       </c>
       <c r="C422" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D422" t="s">
         <v>453</v>
@@ -52312,7 +52408,7 @@
         <v>809</v>
       </c>
       <c r="D423" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="E423" t="n">
         <v>4.0</v>
@@ -52341,7 +52437,7 @@
         <v>810</v>
       </c>
       <c r="D424" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="E424" t="n">
         <v>5.0</v>
@@ -52367,10 +52463,10 @@
         <v>17.0</v>
       </c>
       <c r="C425" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="D425" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E425" t="n">
         <v>4.0</v>
@@ -52396,10 +52492,10 @@
         <v>11.0</v>
       </c>
       <c r="C426" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D426" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="E426" t="n">
         <v>7.0</v>
@@ -52425,7 +52521,7 @@
         <v>11.0</v>
       </c>
       <c r="C427" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D427" t="s">
         <v>811</v>
@@ -52457,7 +52553,7 @@
         <v>812</v>
       </c>
       <c r="D428" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="E428" t="n">
         <v>6.0</v>
@@ -52483,7 +52579,7 @@
         <v>10.0</v>
       </c>
       <c r="C429" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="D429" t="s">
         <v>813</v>
@@ -52515,7 +52611,7 @@
         <v>814</v>
       </c>
       <c r="D430" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="E430" t="n">
         <v>1.0</v>
@@ -52541,7 +52637,7 @@
         <v>11.0</v>
       </c>
       <c r="C431" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D431" t="s">
         <v>815</v>
@@ -52573,7 +52669,7 @@
         <v>816</v>
       </c>
       <c r="D432" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="E432" t="n">
         <v>2.0</v>
@@ -52599,7 +52695,7 @@
         <v>11.0</v>
       </c>
       <c r="C433" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="D433" t="s">
         <v>817</v>
@@ -52631,7 +52727,7 @@
         <v>818</v>
       </c>
       <c r="D434" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="E434" t="n">
         <v>6.0</v>
@@ -52657,7 +52753,7 @@
         <v>11.0</v>
       </c>
       <c r="C435" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="D435" t="s">
         <v>819</v>
@@ -52689,7 +52785,7 @@
         <v>820</v>
       </c>
       <c r="D436" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="E436" t="n">
         <v>5.0</v>
@@ -52715,7 +52811,7 @@
         <v>11.0</v>
       </c>
       <c r="C437" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D437" t="s">
         <v>821</v>
@@ -52747,7 +52843,7 @@
         <v>822</v>
       </c>
       <c r="D438" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="E438" t="n">
         <v>3.0</v>
@@ -52773,7 +52869,7 @@
         <v>11.0</v>
       </c>
       <c r="C439" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="D439" t="s">
         <v>823</v>
@@ -52805,7 +52901,7 @@
         <v>824</v>
       </c>
       <c r="D440" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="E440" t="n">
         <v>2.0</v>
@@ -52831,10 +52927,10 @@
         <v>11.0</v>
       </c>
       <c r="C441" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="D441" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E441" t="n">
         <v>3.0</v>
@@ -52860,10 +52956,10 @@
         <v>11.0</v>
       </c>
       <c r="C442" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D442" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="E442" t="n">
         <v>3.0</v>
@@ -52889,7 +52985,7 @@
         <v>11.0</v>
       </c>
       <c r="C443" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D443" t="s">
         <v>825</v>
@@ -52921,7 +53017,7 @@
         <v>826</v>
       </c>
       <c r="D444" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="E444" t="n">
         <v>5.0</v>
@@ -52947,7 +53043,7 @@
         <v>10.0</v>
       </c>
       <c r="C445" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D445" t="s">
         <v>827</v>
@@ -52979,7 +53075,7 @@
         <v>828</v>
       </c>
       <c r="D446" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="E446" t="n">
         <v>3.0</v>
@@ -53005,7 +53101,7 @@
         <v>10.0</v>
       </c>
       <c r="C447" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="D447" t="s">
         <v>829</v>
@@ -53037,7 +53133,7 @@
         <v>830</v>
       </c>
       <c r="D448" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="E448" t="n">
         <v>3.0</v>
@@ -53066,7 +53162,7 @@
         <v>831</v>
       </c>
       <c r="D449" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="E449" t="n">
         <v>5.0</v>
@@ -53092,10 +53188,10 @@
         <v>17.0</v>
       </c>
       <c r="C450" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="D450" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E450" t="n">
         <v>4.0</v>
@@ -53121,7 +53217,7 @@
         <v>293.0</v>
       </c>
       <c r="C451" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D451" t="s">
         <v>450</v>
@@ -53153,7 +53249,7 @@
         <v>832</v>
       </c>
       <c r="D452" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="E452" t="n">
         <v>2.0</v>
@@ -53179,7 +53275,7 @@
         <v>293.0</v>
       </c>
       <c r="C453" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="D453" t="s">
         <v>833</v>
@@ -53211,7 +53307,7 @@
         <v>834</v>
       </c>
       <c r="D454" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="E454" t="n">
         <v>3.0</v>
@@ -53237,10 +53333,10 @@
         <v>17.0</v>
       </c>
       <c r="C455" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D455" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E455" t="n">
         <v>3.0</v>
@@ -53269,7 +53365,7 @@
         <v>835</v>
       </c>
       <c r="D456" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="E456" t="n">
         <v>3.0</v>
@@ -53295,7 +53391,7 @@
         <v>17.0</v>
       </c>
       <c r="C457" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D457" t="s">
         <v>836</v>
@@ -53327,7 +53423,7 @@
         <v>837</v>
       </c>
       <c r="D458" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="E458" t="n">
         <v>6.0</v>
@@ -53356,7 +53452,7 @@
         <v>838</v>
       </c>
       <c r="D459" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="E459" t="n">
         <v>3.0</v>
@@ -53382,7 +53478,7 @@
         <v>17.0</v>
       </c>
       <c r="C460" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D460" t="s">
         <v>839</v>
@@ -53414,7 +53510,7 @@
         <v>840</v>
       </c>
       <c r="D461" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="E461" t="n">
         <v>4.0</v>
@@ -53440,7 +53536,7 @@
         <v>10.0</v>
       </c>
       <c r="C462" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="D462" t="s">
         <v>841</v>
@@ -53472,7 +53568,7 @@
         <v>842</v>
       </c>
       <c r="D463" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="E463" t="n">
         <v>4.0</v>
@@ -53498,10 +53594,10 @@
         <v>17.0</v>
       </c>
       <c r="C464" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="D464" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E464" t="n">
         <v>4.0</v>
@@ -53530,7 +53626,7 @@
         <v>843</v>
       </c>
       <c r="D465" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="E465" t="n">
         <v>2.0</v>
@@ -53556,10 +53652,10 @@
         <v>177.0</v>
       </c>
       <c r="C466" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="D466" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E466" t="n">
         <v>0.0</v>
@@ -53588,7 +53684,7 @@
         <v>845</v>
       </c>
       <c r="D467" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="E467" t="n">
         <v>4.0</v>
@@ -53614,7 +53710,7 @@
         <v>10.0</v>
       </c>
       <c r="C468" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="D468" t="s">
         <v>846</v>
@@ -53646,7 +53742,7 @@
         <v>847</v>
       </c>
       <c r="D469" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="E469" t="n">
         <v>3.0</v>
@@ -53672,7 +53768,7 @@
         <v>10.0</v>
       </c>
       <c r="C470" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="D470" t="s">
         <v>848</v>
@@ -53704,7 +53800,7 @@
         <v>849</v>
       </c>
       <c r="D471" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E471" t="n">
         <v>2.0</v>
@@ -53730,7 +53826,7 @@
         <v>293.0</v>
       </c>
       <c r="C472" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="D472" t="s">
         <v>850</v>
@@ -53762,7 +53858,7 @@
         <v>851</v>
       </c>
       <c r="D473" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="E473" t="n">
         <v>5.0</v>
@@ -53788,7 +53884,7 @@
         <v>309.0</v>
       </c>
       <c r="C474" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D474" t="s">
         <v>852</v>
@@ -53820,7 +53916,7 @@
         <v>853</v>
       </c>
       <c r="D475" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="E475" t="n">
         <v>2.0</v>
@@ -53846,7 +53942,7 @@
         <v>17.0</v>
       </c>
       <c r="C476" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="D476" t="s">
         <v>854</v>
@@ -53878,7 +53974,7 @@
         <v>855</v>
       </c>
       <c r="D477" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="E477" t="n">
         <v>7.0</v>
@@ -53904,7 +54000,7 @@
         <v>10.0</v>
       </c>
       <c r="C478" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D478" t="s">
         <v>856</v>
@@ -53936,7 +54032,7 @@
         <v>857</v>
       </c>
       <c r="D479" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="E479" t="n">
         <v>5.0</v>
@@ -53962,7 +54058,7 @@
         <v>11.0</v>
       </c>
       <c r="C480" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D480" t="s">
         <v>858</v>
@@ -53994,7 +54090,7 @@
         <v>859</v>
       </c>
       <c r="D481" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="E481" t="n">
         <v>5.0</v>
@@ -54020,10 +54116,10 @@
         <v>11.0</v>
       </c>
       <c r="C482" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D482" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E482" t="n">
         <v>6.0</v>
@@ -54049,10 +54145,10 @@
         <v>11.0</v>
       </c>
       <c r="C483" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D483" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="E483" t="n">
         <v>5.0</v>
@@ -54078,7 +54174,7 @@
         <v>11.0</v>
       </c>
       <c r="C484" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D484" t="s">
         <v>860</v>
@@ -54110,7 +54206,7 @@
         <v>861</v>
       </c>
       <c r="D485" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="E485" t="n">
         <v>5.0</v>
@@ -54136,7 +54232,7 @@
         <v>11.0</v>
       </c>
       <c r="C486" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D486" t="s">
         <v>862</v>
@@ -54168,7 +54264,7 @@
         <v>863</v>
       </c>
       <c r="D487" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="E487" t="n">
         <v>5.0</v>
@@ -54197,7 +54293,7 @@
         <v>864</v>
       </c>
       <c r="D488" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="E488" t="n">
         <v>6.0</v>
@@ -54223,7 +54319,7 @@
         <v>11.0</v>
       </c>
       <c r="C489" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D489" t="s">
         <v>865</v>
@@ -54255,7 +54351,7 @@
         <v>867</v>
       </c>
       <c r="D490" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="E490" t="n">
         <v>3.0</v>
@@ -54281,7 +54377,7 @@
         <v>309.0</v>
       </c>
       <c r="C491" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D491" t="s">
         <v>472</v>
@@ -54313,7 +54409,7 @@
         <v>868</v>
       </c>
       <c r="D492" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="E492" t="n">
         <v>1.0</v>
@@ -54339,10 +54435,10 @@
         <v>177.0</v>
       </c>
       <c r="C493" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D493" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E493" t="n">
         <v>1.0</v>
@@ -54371,7 +54467,7 @@
         <v>869</v>
       </c>
       <c r="D494" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="E494" t="n">
         <v>2.0</v>
@@ -54397,10 +54493,10 @@
         <v>17.0</v>
       </c>
       <c r="C495" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="D495" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E495" t="n">
         <v>2.0</v>
@@ -54429,7 +54525,7 @@
         <v>870</v>
       </c>
       <c r="D496" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="E496" t="n">
         <v>2.0</v>
@@ -54458,7 +54554,7 @@
         <v>871</v>
       </c>
       <c r="D497" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="E497" t="n">
         <v>1.0</v>
@@ -54484,10 +54580,10 @@
         <v>177.0</v>
       </c>
       <c r="C498" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D498" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E498" t="n">
         <v>1.0</v>
@@ -54516,7 +54612,7 @@
         <v>872</v>
       </c>
       <c r="D499" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="E499" t="n">
         <v>3.0</v>
@@ -54542,10 +54638,10 @@
         <v>17.0</v>
       </c>
       <c r="C500" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D500" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E500" t="n">
         <v>2.0</v>
@@ -54574,7 +54670,7 @@
         <v>873</v>
       </c>
       <c r="D501" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="E501" t="n">
         <v>3.0</v>
@@ -54600,7 +54696,7 @@
         <v>309.0</v>
       </c>
       <c r="C502" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D502" t="s">
         <v>874</v>
@@ -54632,7 +54728,7 @@
         <v>875</v>
       </c>
       <c r="D503" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="E503" t="n">
         <v>3.0</v>
@@ -54648,6 +54744,93 @@
       </c>
       <c r="I503" t="n">
         <v>19.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>2041.0</v>
+      </c>
+      <c r="B504" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D504" t="s">
+        <v>876</v>
+      </c>
+      <c r="E504" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>2043.0</v>
+      </c>
+      <c r="B505" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="C505" t="s">
+        <v>877</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>2044.0</v>
+      </c>
+      <c r="B506" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D506" t="s">
+        <v>878</v>
+      </c>
+      <c r="E506" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G506" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H506" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
